--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_14_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_14_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>986417.904074786</v>
+        <v>982762.1025700187</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9520764.293756533</v>
+        <v>9520764.293756526</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12479095.86095654</v>
+        <v>12479095.86095653</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6912044.880726591</v>
+        <v>6912044.88072659</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>181.5582238182618</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>181.5582238182618</v>
       </c>
       <c r="H11" t="n">
         <v>181.5582238182618</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>126.6466107996747</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>159.916483539125</v>
+        <v>33.26987273945029</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>181.5582238182618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>115.3570688438413</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>115.3570688438412</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>88.08022390820607</v>
+        <v>107.9926308624541</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1549,7 +1549,7 @@
         <v>126.1184571760003</v>
       </c>
       <c r="J13" t="n">
-        <v>24.40056401886955</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>4.488157064621518</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>181.5582238182618</v>
       </c>
       <c r="C14" t="n">
         <v>181.5582238182618</v>
@@ -1619,7 +1619,7 @@
         <v>181.5582238182618</v>
       </c>
       <c r="G14" t="n">
-        <v>181.5582238182618</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>118.2516960142179</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>36.3461829728266</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.1801005662687</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>181.5582238182618</v>
       </c>
     </row>
     <row r="16">
@@ -1850,64 +1850,64 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>33.26987273945018</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>159.916483539125</v>
+      </c>
+      <c r="V17" t="n">
         <v>181.5582238182618</v>
       </c>
-      <c r="G17" t="n">
+      <c r="W17" t="n">
         <v>181.5582238182618</v>
       </c>
-      <c r="H17" t="n">
+      <c r="X17" t="n">
         <v>181.5582238182618</v>
-      </c>
-      <c r="I17" t="n">
-        <v>126.6466107996747</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1923,22 +1923,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>123.1650682559788</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>100.9992892081362</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,19 +1971,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>150.0732180860786</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>159.916483539125</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>181.5582238182618</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>181.5582238182618</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>181.5582238182618</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>159.9164835391249</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>14.49543551619369</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>181.5582238182618</v>
       </c>
       <c r="T19" t="n">
-        <v>181.5582238182618</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>181.5582238182618</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>181.5582238182618</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>234.16871962476</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>126.6466107996747</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,22 +2126,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>13.28028628089564</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>159.4705023730156</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>141.0271284166626</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>206.2558082454886</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>234.16871962476</v>
       </c>
       <c r="W20" t="n">
-        <v>234.16871962476</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,19 +2157,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>112.9019549025021</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.1801005662687</v>
@@ -2205,22 +2205,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>27.92395105479207</v>
       </c>
       <c r="S21" t="n">
-        <v>150.0732180860786</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8648415153865</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>162.4750873272748</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>234.16871962476</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2248,19 +2248,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>75.96858830929712</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.0156099652791</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.5552519026239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>126.1184571760003</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>24.40056401886955</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,28 +2281,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>4.488157064621518</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.4372366620178</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>223.7781020210592</v>
       </c>
       <c r="U22" t="n">
-        <v>234.16871962476</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>234.16871962476</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>234.16871962476</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>206.2558082454886</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>81.7345090134134</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.1283187674343</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>13.28028628089564</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>180.3908555916084</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2406,7 +2406,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>62.28918914443467</v>
+        <v>82.47133488251683</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>195.475343376446</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8648415153865</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2488,16 +2488,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>135.8038610393585</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.5552519026239</v>
       </c>
       <c r="I25" t="n">
         <v>126.1184571760003</v>
       </c>
       <c r="J25" t="n">
-        <v>24.40056401886955</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,25 +2518,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.488157064621518</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>207.0185696121955</v>
       </c>
       <c r="T25" t="n">
-        <v>223.7781020210592</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2658273895902</v>
       </c>
       <c r="V25" t="n">
-        <v>243.4536885026268</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.1283187674343</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>317.2060361158774</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,28 +2600,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>13.28028628089564</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>71.95485898554155</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>148.3904630185209</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2631,22 +2631,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>118.0645167898493</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.1801005662687</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2682,19 +2682,19 @@
         <v>27.92395105479207</v>
       </c>
       <c r="S27" t="n">
-        <v>150.0732180860786</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>195.475343376446</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8648415153865</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>248.39234846023</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2716,25 +2716,25 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>145.8170733874951</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.0156099652791</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.5552519026239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>126.1184571760003</v>
+        <v>112.195039372528</v>
       </c>
       <c r="J28" t="n">
-        <v>24.40056401886955</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2764,16 +2764,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>223.7781020210592</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2658273895902</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.1283187674343</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>13.28028628089564</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>213.5773314960715</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1716994080204</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>29.12993288094695</v>
+        <v>98.51889228688208</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,28 +2868,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>154.8084125375277</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.1801005662687</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>49.34040352687914</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>27.92395105479207</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>150.0732180860786</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>195.475343376446</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8648415153865</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>27.82114307918025</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2947,31 +2947,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.0156099652791</v>
+        <v>70.24074655333982</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.5552519026239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>126.1184571760003</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>24.40056401886955</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>48.28028795567608</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3029,22 +3029,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.1283187674343</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>41.68728685380228</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,10 +3074,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>13.28028628089564</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>111.9485937127774</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3092,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3105,19 +3105,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>56.69111826383802</v>
       </c>
       <c r="G33" t="n">
         <v>136.1801005662687</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>36.99886826876279</v>
+        <v>195.475343376446</v>
       </c>
       <c r="U33" t="n">
         <v>225.8648415153865</v>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.0156099652791</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>24.40056401886955</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>133.4372366620178</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>13.14315772327319</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>223.7781020210592</v>
+        <v>178.9423224222016</v>
       </c>
       <c r="U34" t="n">
         <v>286.2658273895902</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>234.16871962476</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,19 +3272,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>206.2558082454886</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>234.16871962476</v>
       </c>
       <c r="G35" t="n">
-        <v>79.60919744581392</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>234.16871962476</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>126.6466107996747</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>234.16871962476</v>
       </c>
       <c r="Y35" t="n">
-        <v>234.16871962476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.1801005662687</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>27.92395105479207</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>150.0732180860786</v>
       </c>
       <c r="T36" t="n">
-        <v>10.15483362671926</v>
+        <v>135.9192687478175</v>
       </c>
       <c r="U36" t="n">
         <v>225.8648415153865</v>
@@ -3405,10 +3405,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>234.16871962476</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3424,10 +3424,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>81.74320343209031</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>4.488157064621518</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.139699172372332</v>
       </c>
       <c r="S37" t="n">
         <v>207.0185696121955</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>223.7781020210592</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>234.16871962476</v>
       </c>
       <c r="V37" t="n">
         <v>234.16871962476</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3548,19 +3548,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>13.28028628089564</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>159.4705023730156</v>
       </c>
       <c r="T38" t="n">
-        <v>206.2558082454886</v>
+        <v>213.5773314960715</v>
       </c>
       <c r="U38" t="n">
         <v>234.16871962476</v>
       </c>
       <c r="V38" t="n">
-        <v>234.16871962476</v>
+        <v>54.09640772026578</v>
       </c>
       <c r="W38" t="n">
         <v>234.16871962476</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.1801005662687</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>27.92395105479207</v>
       </c>
       <c r="S39" t="n">
-        <v>35.47751452517103</v>
+        <v>99.03351489316596</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,13 +3639,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>234.16871962476</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>116.8377359072553</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>153.5552519026239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>126.1184571760003</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3703,10 +3703,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>4.488157064621518</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.4372366620178</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,19 +3715,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>234.16871962476</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>234.16871962476</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>234.16871962476</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>206.2558082454886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,73 +3740,73 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>234.16871962476</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>234.16871962476</v>
       </c>
       <c r="E41" t="n">
+        <v>206.2558082454886</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>234.16871962476</v>
-      </c>
-      <c r="F41" t="n">
-        <v>192.9755219645929</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>13.28028628089564</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>234.16871962476</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>234.16871962476</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3822,10 +3822,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>129.6688690795211</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3879,10 +3879,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>234.16871962476</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>58.74744268424159</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>136.0202051784869</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.40056401886955</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>4.488157064621518</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3955,10 +3955,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>234.16871962476</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>21.57823748844823</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3977,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>181.5582238182618</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4022,13 +4022,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>0.4459811661094102</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>159.4705023730156</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>181.5582238182618</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>159.9164835391251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>58.91719433098886</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4065,13 +4065,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>29.87231131413563</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>100.9992892081362</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4113,16 +4113,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>181.5582238182618</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>181.5582238182618</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>181.5582238182618</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>181.5582238182618</v>
       </c>
     </row>
     <row r="46">
@@ -4141,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>14.4954355161938</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>133.4372366620178</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,19 +4189,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>181.5582238182618</v>
       </c>
       <c r="V46" t="n">
-        <v>26.47924687710725</v>
+        <v>181.5582238182618</v>
       </c>
       <c r="W46" t="n">
         <v>181.5582238182618</v>
       </c>
       <c r="X46" t="n">
-        <v>181.5582238182618</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>181.5582238182618</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>381.3089484474038</v>
+        <v>692.6269632129963</v>
       </c>
       <c r="C11" t="n">
-        <v>381.3089484474038</v>
+        <v>692.6269632129963</v>
       </c>
       <c r="D11" t="n">
-        <v>197.9168031764324</v>
+        <v>692.6269632129963</v>
       </c>
       <c r="E11" t="n">
-        <v>197.9168031764324</v>
+        <v>509.2348179420248</v>
       </c>
       <c r="F11" t="n">
-        <v>197.9168031764324</v>
+        <v>509.2348179420248</v>
       </c>
       <c r="G11" t="n">
-        <v>197.9168031764324</v>
+        <v>325.8426726710534</v>
       </c>
       <c r="H11" t="n">
-        <v>14.52465790546094</v>
+        <v>142.4505274000819</v>
       </c>
       <c r="I11" t="n">
         <v>14.52465790546094</v>
       </c>
       <c r="J11" t="n">
-        <v>17.99477487982711</v>
+        <v>29.13506964422205</v>
       </c>
       <c r="K11" t="n">
-        <v>73.93409893535083</v>
+        <v>85.07439369974577</v>
       </c>
       <c r="L11" t="n">
-        <v>180.2335387775638</v>
+        <v>191.3738335419587</v>
       </c>
       <c r="M11" t="n">
-        <v>330.181584755442</v>
+        <v>341.321879519837</v>
       </c>
       <c r="N11" t="n">
-        <v>487.169755261931</v>
+        <v>498.3100500263259</v>
       </c>
       <c r="O11" t="n">
-        <v>633.2142665277455</v>
+        <v>633.2142665277456</v>
       </c>
       <c r="P11" t="n">
-        <v>713.8508933333958</v>
+        <v>713.8508933333959</v>
       </c>
       <c r="Q11" t="n">
-        <v>726.232895273047</v>
+        <v>726.2328952730471</v>
       </c>
       <c r="R11" t="n">
-        <v>726.232895273047</v>
+        <v>726.2328952730471</v>
       </c>
       <c r="S11" t="n">
-        <v>726.232895273047</v>
+        <v>726.2328952730471</v>
       </c>
       <c r="T11" t="n">
-        <v>726.232895273047</v>
+        <v>726.2328952730471</v>
       </c>
       <c r="U11" t="n">
-        <v>726.232895273047</v>
+        <v>726.2328952730471</v>
       </c>
       <c r="V11" t="n">
-        <v>726.232895273047</v>
+        <v>726.2328952730471</v>
       </c>
       <c r="W11" t="n">
-        <v>564.7010937183753</v>
+        <v>692.6269632129963</v>
       </c>
       <c r="X11" t="n">
-        <v>564.7010937183753</v>
+        <v>692.6269632129963</v>
       </c>
       <c r="Y11" t="n">
-        <v>381.3089484474038</v>
+        <v>692.6269632129963</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>726.232895273047</v>
+        <v>609.7106035115912</v>
       </c>
       <c r="C12" t="n">
-        <v>726.232895273047</v>
+        <v>609.7106035115912</v>
       </c>
       <c r="D12" t="n">
         <v>609.7106035115912</v>
@@ -5124,7 +5124,7 @@
         <v>64.04923753626269</v>
       </c>
       <c r="L12" t="n">
-        <v>176.9636877177592</v>
+        <v>176.9636877177593</v>
       </c>
       <c r="M12" t="n">
         <v>328.0863934212866</v>
@@ -5133,37 +5133,37 @@
         <v>497.6175123808885</v>
       </c>
       <c r="O12" t="n">
-        <v>630.485570437757</v>
+        <v>630.4855704377572</v>
       </c>
       <c r="P12" t="n">
-        <v>717.7908346400324</v>
+        <v>717.7908346400325</v>
       </c>
       <c r="Q12" t="n">
-        <v>726.232895273047</v>
+        <v>726.2328952730471</v>
       </c>
       <c r="R12" t="n">
-        <v>726.232895273047</v>
+        <v>726.2328952730471</v>
       </c>
       <c r="S12" t="n">
-        <v>726.232895273047</v>
+        <v>726.2328952730471</v>
       </c>
       <c r="T12" t="n">
-        <v>726.232895273047</v>
+        <v>726.2328952730471</v>
       </c>
       <c r="U12" t="n">
-        <v>726.232895273047</v>
+        <v>726.2328952730471</v>
       </c>
       <c r="V12" t="n">
-        <v>726.232895273047</v>
+        <v>726.2328952730471</v>
       </c>
       <c r="W12" t="n">
-        <v>726.232895273047</v>
+        <v>726.2328952730471</v>
       </c>
       <c r="X12" t="n">
-        <v>726.232895273047</v>
+        <v>726.2328952730471</v>
       </c>
       <c r="Y12" t="n">
-        <v>726.232895273047</v>
+        <v>726.2328952730471</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>726.232895273047</v>
+        <v>721.6994032885809</v>
       </c>
       <c r="C13" t="n">
-        <v>726.232895273047</v>
+        <v>721.6994032885809</v>
       </c>
       <c r="D13" t="n">
-        <v>726.232895273047</v>
+        <v>721.6994032885809</v>
       </c>
       <c r="E13" t="n">
-        <v>637.2629721334449</v>
+        <v>612.6159377709505</v>
       </c>
       <c r="F13" t="n">
-        <v>490.3730246355345</v>
+        <v>465.7259902730401</v>
       </c>
       <c r="G13" t="n">
-        <v>321.6703883069698</v>
+        <v>297.0233539444753</v>
       </c>
       <c r="H13" t="n">
-        <v>166.5640732538143</v>
+        <v>141.9170388913199</v>
       </c>
       <c r="I13" t="n">
-        <v>39.17169226795544</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="J13" t="n">
         <v>14.52465790546094</v>
@@ -5203,46 +5203,46 @@
         <v>104.6648486013635</v>
       </c>
       <c r="L13" t="n">
-        <v>275.5396931136206</v>
+        <v>114.6897385874817</v>
       </c>
       <c r="M13" t="n">
-        <v>455.2823346936997</v>
+        <v>294.4323801675608</v>
       </c>
       <c r="N13" t="n">
-        <v>476.6391826316607</v>
+        <v>474.17502174764</v>
       </c>
       <c r="O13" t="n">
-        <v>612.1402919390406</v>
+        <v>612.1402919390407</v>
       </c>
       <c r="P13" t="n">
-        <v>726.232895273047</v>
+        <v>726.2328952730471</v>
       </c>
       <c r="Q13" t="n">
-        <v>726.232895273047</v>
+        <v>721.6994032885809</v>
       </c>
       <c r="R13" t="n">
-        <v>726.232895273047</v>
+        <v>721.6994032885809</v>
       </c>
       <c r="S13" t="n">
-        <v>726.232895273047</v>
+        <v>721.6994032885809</v>
       </c>
       <c r="T13" t="n">
-        <v>726.232895273047</v>
+        <v>721.6994032885809</v>
       </c>
       <c r="U13" t="n">
-        <v>726.232895273047</v>
+        <v>721.6994032885809</v>
       </c>
       <c r="V13" t="n">
-        <v>726.232895273047</v>
+        <v>721.6994032885809</v>
       </c>
       <c r="W13" t="n">
-        <v>726.232895273047</v>
+        <v>721.6994032885809</v>
       </c>
       <c r="X13" t="n">
-        <v>726.232895273047</v>
+        <v>721.6994032885809</v>
       </c>
       <c r="Y13" t="n">
-        <v>726.232895273047</v>
+        <v>721.6994032885809</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>692.6269632129963</v>
+        <v>509.2348179420248</v>
       </c>
       <c r="C14" t="n">
-        <v>509.2348179420248</v>
+        <v>325.8426726710533</v>
       </c>
       <c r="D14" t="n">
-        <v>509.2348179420248</v>
+        <v>325.8426726710533</v>
       </c>
       <c r="E14" t="n">
-        <v>509.2348179420248</v>
+        <v>325.8426726710533</v>
       </c>
       <c r="F14" t="n">
-        <v>325.8426726710533</v>
+        <v>142.4505274000819</v>
       </c>
       <c r="G14" t="n">
         <v>142.4505274000819</v>
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>726.232895273047</v>
+        <v>374.6254129820075</v>
       </c>
       <c r="C15" t="n">
-        <v>606.7867376829279</v>
+        <v>200.1723837008805</v>
       </c>
       <c r="D15" t="n">
-        <v>457.8523280216766</v>
+        <v>51.23797403962922</v>
       </c>
       <c r="E15" t="n">
-        <v>298.6148730162211</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="F15" t="n">
-        <v>152.0803150431061</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="G15" t="n">
         <v>14.52465790546094</v>
@@ -5358,19 +5358,19 @@
         <v>14.52465790546094</v>
       </c>
       <c r="K15" t="n">
-        <v>64.04923753626271</v>
+        <v>64.04923753626269</v>
       </c>
       <c r="L15" t="n">
         <v>176.9636877177592</v>
       </c>
       <c r="M15" t="n">
-        <v>328.0863934212867</v>
+        <v>328.0863934212865</v>
       </c>
       <c r="N15" t="n">
-        <v>497.6175123808886</v>
+        <v>497.6175123808883</v>
       </c>
       <c r="O15" t="n">
-        <v>630.4855704377572</v>
+        <v>630.485570437757</v>
       </c>
       <c r="P15" t="n">
         <v>717.7908346400324</v>
@@ -5400,7 +5400,7 @@
         <v>726.232895273047</v>
       </c>
       <c r="Y15" t="n">
-        <v>726.232895273047</v>
+        <v>542.8407500020755</v>
       </c>
     </row>
     <row r="16">
@@ -5440,7 +5440,7 @@
         <v>104.6648486013635</v>
       </c>
       <c r="L16" t="n">
-        <v>275.5396931136206</v>
+        <v>250.2161358596825</v>
       </c>
       <c r="M16" t="n">
         <v>429.9587774397616</v>
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>726.232895273047</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="C17" t="n">
-        <v>726.232895273047</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="D17" t="n">
-        <v>726.232895273047</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="E17" t="n">
-        <v>692.6269632129963</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="F17" t="n">
-        <v>509.2348179420248</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="G17" t="n">
-        <v>325.8426726710533</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="H17" t="n">
-        <v>142.4505274000819</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="I17" t="n">
         <v>14.52465790546094</v>
@@ -5519,16 +5519,16 @@
         <v>73.93409893535083</v>
       </c>
       <c r="L17" t="n">
-        <v>191.3738335419586</v>
+        <v>180.2335387775638</v>
       </c>
       <c r="M17" t="n">
-        <v>341.3218795198369</v>
+        <v>330.181584755442</v>
       </c>
       <c r="N17" t="n">
-        <v>498.3100500263258</v>
+        <v>487.169755261931</v>
       </c>
       <c r="O17" t="n">
-        <v>633.2142665277455</v>
+        <v>622.0739717633506</v>
       </c>
       <c r="P17" t="n">
         <v>713.8508933333958</v>
@@ -5546,19 +5546,19 @@
         <v>726.232895273047</v>
       </c>
       <c r="U17" t="n">
-        <v>726.232895273047</v>
+        <v>564.7010937183753</v>
       </c>
       <c r="V17" t="n">
-        <v>726.232895273047</v>
+        <v>381.3089484474038</v>
       </c>
       <c r="W17" t="n">
-        <v>726.232895273047</v>
+        <v>197.9168031764324</v>
       </c>
       <c r="X17" t="n">
-        <v>726.232895273047</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="Y17" t="n">
-        <v>726.232895273047</v>
+        <v>14.52465790546094</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>574.6437860951899</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="C18" t="n">
-        <v>400.1907568140629</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="D18" t="n">
-        <v>400.1907568140629</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="E18" t="n">
-        <v>240.9533018086074</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="F18" t="n">
-        <v>240.9533018086074</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="G18" t="n">
-        <v>116.5441419540834</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="H18" t="n">
         <v>14.52465790546094</v>
@@ -5592,13 +5592,13 @@
         <v>14.52465790546094</v>
       </c>
       <c r="J18" t="n">
-        <v>14.52465790546094</v>
+        <v>14.52465790546073</v>
       </c>
       <c r="K18" t="n">
-        <v>64.04923753626271</v>
+        <v>64.0492375362625</v>
       </c>
       <c r="L18" t="n">
-        <v>176.9636877177592</v>
+        <v>176.963687717759</v>
       </c>
       <c r="M18" t="n">
         <v>328.0863934212865</v>
@@ -5619,25 +5619,25 @@
         <v>726.232895273047</v>
       </c>
       <c r="S18" t="n">
-        <v>574.6437860951899</v>
+        <v>726.232895273047</v>
       </c>
       <c r="T18" t="n">
-        <v>574.6437860951899</v>
+        <v>564.7010937183753</v>
       </c>
       <c r="U18" t="n">
-        <v>574.6437860951899</v>
+        <v>381.3089484474038</v>
       </c>
       <c r="V18" t="n">
-        <v>574.6437860951899</v>
+        <v>197.9168031764324</v>
       </c>
       <c r="W18" t="n">
-        <v>574.6437860951899</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="X18" t="n">
-        <v>574.6437860951899</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="Y18" t="n">
-        <v>574.6437860951899</v>
+        <v>14.52465790546094</v>
       </c>
     </row>
     <row r="19">
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>176.0564594601326</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="C19" t="n">
-        <v>176.0564594601326</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="D19" t="n">
-        <v>176.0564594601326</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="E19" t="n">
-        <v>176.0564594601326</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="F19" t="n">
-        <v>29.16651196222224</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="G19" t="n">
-        <v>29.16651196222224</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="H19" t="n">
-        <v>29.16651196222224</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="I19" t="n">
-        <v>29.16651196222224</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="J19" t="n">
         <v>14.52465790546094</v>
       </c>
       <c r="K19" t="n">
-        <v>104.6648486013635</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="L19" t="n">
-        <v>275.5396931136206</v>
+        <v>185.3995024177181</v>
       </c>
       <c r="M19" t="n">
-        <v>432.3976503589615</v>
+        <v>365.1421439977972</v>
       </c>
       <c r="N19" t="n">
-        <v>612.1402919390406</v>
+        <v>451.3156253777225</v>
       </c>
       <c r="O19" t="n">
         <v>612.1402919390406</v>
@@ -5701,10 +5701,10 @@
         <v>542.8407500020755</v>
       </c>
       <c r="T19" t="n">
+        <v>542.8407500020755</v>
+      </c>
+      <c r="U19" t="n">
         <v>359.4486047311041</v>
-      </c>
-      <c r="U19" t="n">
-        <v>176.0564594601326</v>
       </c>
       <c r="V19" t="n">
         <v>176.0564594601326</v>
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>383.193427291632</v>
+        <v>491.8016180240414</v>
       </c>
       <c r="C20" t="n">
-        <v>383.193427291632</v>
+        <v>255.2675577970111</v>
       </c>
       <c r="D20" t="n">
-        <v>383.193427291632</v>
+        <v>255.2675577970111</v>
       </c>
       <c r="E20" t="n">
-        <v>146.6593670646017</v>
+        <v>18.7334975699808</v>
       </c>
       <c r="F20" t="n">
-        <v>146.6593670646017</v>
+        <v>18.7334975699808</v>
       </c>
       <c r="G20" t="n">
-        <v>146.6593670646017</v>
+        <v>18.7334975699808</v>
       </c>
       <c r="H20" t="n">
-        <v>146.6593670646017</v>
+        <v>18.7334975699808</v>
       </c>
       <c r="I20" t="n">
         <v>18.7334975699808</v>
       </c>
       <c r="J20" t="n">
-        <v>189.6092635647</v>
+        <v>22.20361454434697</v>
       </c>
       <c r="K20" t="n">
-        <v>295.5163769257387</v>
+        <v>78.14293859987069</v>
       </c>
       <c r="L20" t="n">
-        <v>401.8158167679516</v>
+        <v>184.4423784420836</v>
       </c>
       <c r="M20" t="n">
-        <v>551.7638627458299</v>
+        <v>380.0021848967136</v>
       </c>
       <c r="N20" t="n">
-        <v>708.7520332523188</v>
+        <v>611.8292173252261</v>
       </c>
       <c r="O20" t="n">
         <v>843.6562497537385</v>
@@ -5774,28 +5774,28 @@
         <v>936.67487849904</v>
       </c>
       <c r="R20" t="n">
-        <v>923.2604479122767</v>
+        <v>936.67487849904</v>
       </c>
       <c r="S20" t="n">
-        <v>762.1791323839781</v>
+        <v>936.67487849904</v>
       </c>
       <c r="T20" t="n">
-        <v>619.7274875186623</v>
+        <v>936.67487849904</v>
       </c>
       <c r="U20" t="n">
-        <v>619.7274875186623</v>
+        <v>728.3356782510717</v>
       </c>
       <c r="V20" t="n">
-        <v>619.7274875186623</v>
+        <v>491.8016180240414</v>
       </c>
       <c r="W20" t="n">
-        <v>383.193427291632</v>
+        <v>491.8016180240414</v>
       </c>
       <c r="X20" t="n">
-        <v>383.193427291632</v>
+        <v>491.8016180240414</v>
       </c>
       <c r="Y20" t="n">
-        <v>383.193427291632</v>
+        <v>491.8016180240414</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>156.289154707626</v>
+        <v>740.2535303125153</v>
       </c>
       <c r="C21" t="n">
-        <v>156.289154707626</v>
+        <v>565.8005010313883</v>
       </c>
       <c r="D21" t="n">
-        <v>156.289154707626</v>
+        <v>416.866091370137</v>
       </c>
       <c r="E21" t="n">
-        <v>156.289154707626</v>
+        <v>302.823712680741</v>
       </c>
       <c r="F21" t="n">
         <v>156.289154707626</v>
@@ -5841,40 +5841,40 @@
         <v>332.2952330858066</v>
       </c>
       <c r="N21" t="n">
-        <v>564.122265514319</v>
+        <v>501.8263520454084</v>
       </c>
       <c r="O21" t="n">
-        <v>795.9492979428314</v>
+        <v>634.6944101022772</v>
       </c>
       <c r="P21" t="n">
-        <v>928.2328178660254</v>
+        <v>721.9996743045525</v>
       </c>
       <c r="Q21" t="n">
         <v>936.67487849904</v>
       </c>
       <c r="R21" t="n">
-        <v>936.67487849904</v>
+        <v>908.4688673325834</v>
       </c>
       <c r="S21" t="n">
-        <v>785.0857693211829</v>
+        <v>908.4688673325834</v>
       </c>
       <c r="T21" t="n">
-        <v>785.0857693211829</v>
+        <v>908.4688673325834</v>
       </c>
       <c r="U21" t="n">
-        <v>556.9394647601864</v>
+        <v>908.4688673325834</v>
       </c>
       <c r="V21" t="n">
-        <v>392.8232149346563</v>
+        <v>908.4688673325834</v>
       </c>
       <c r="W21" t="n">
-        <v>156.289154707626</v>
+        <v>908.4688673325834</v>
       </c>
       <c r="X21" t="n">
-        <v>156.289154707626</v>
+        <v>908.4688673325834</v>
       </c>
       <c r="Y21" t="n">
-        <v>156.289154707626</v>
+        <v>908.4688673325834</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18.7334975699808</v>
+        <v>571.3178120872233</v>
       </c>
       <c r="C22" t="n">
-        <v>18.7334975699808</v>
+        <v>571.3178120872233</v>
       </c>
       <c r="D22" t="n">
-        <v>18.7334975699808</v>
+        <v>571.3178120872233</v>
       </c>
       <c r="E22" t="n">
-        <v>18.7334975699808</v>
+        <v>571.3178120872233</v>
       </c>
       <c r="F22" t="n">
-        <v>18.7334975699808</v>
+        <v>494.5818643000545</v>
       </c>
       <c r="G22" t="n">
-        <v>18.7334975699808</v>
+        <v>325.8792279714897</v>
       </c>
       <c r="H22" t="n">
-        <v>18.7334975699808</v>
+        <v>170.7729129183342</v>
       </c>
       <c r="I22" t="n">
-        <v>18.7334975699808</v>
+        <v>43.38053193247529</v>
       </c>
       <c r="J22" t="n">
         <v>18.7334975699808</v>
@@ -5917,7 +5917,7 @@
         <v>279.7485327781405</v>
       </c>
       <c r="M22" t="n">
-        <v>470.3012209897374</v>
+        <v>470.3012209897373</v>
       </c>
       <c r="N22" t="n">
         <v>661.7576086037155</v>
@@ -5929,31 +5929,31 @@
         <v>936.67487849904</v>
       </c>
       <c r="Q22" t="n">
-        <v>936.67487849904</v>
+        <v>932.1413865145738</v>
       </c>
       <c r="R22" t="n">
-        <v>936.67487849904</v>
+        <v>797.3562989771821</v>
       </c>
       <c r="S22" t="n">
-        <v>936.67487849904</v>
+        <v>797.3562989771821</v>
       </c>
       <c r="T22" t="n">
-        <v>936.67487849904</v>
+        <v>571.3178120872233</v>
       </c>
       <c r="U22" t="n">
-        <v>700.1408182720097</v>
+        <v>571.3178120872233</v>
       </c>
       <c r="V22" t="n">
-        <v>463.6067580449794</v>
+        <v>571.3178120872233</v>
       </c>
       <c r="W22" t="n">
-        <v>227.0726978179491</v>
+        <v>571.3178120872233</v>
       </c>
       <c r="X22" t="n">
-        <v>18.7334975699808</v>
+        <v>571.3178120872233</v>
       </c>
       <c r="Y22" t="n">
-        <v>18.7334975699808</v>
+        <v>571.3178120872233</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>450.5594875637593</v>
+        <v>33.25815547544175</v>
       </c>
       <c r="C23" t="n">
-        <v>450.5594875637593</v>
+        <v>33.25815547544175</v>
       </c>
       <c r="D23" t="n">
-        <v>450.5594875637593</v>
+        <v>33.25815547544175</v>
       </c>
       <c r="E23" t="n">
-        <v>450.5594875637593</v>
+        <v>33.25815547544175</v>
       </c>
       <c r="F23" t="n">
-        <v>450.5594875637593</v>
+        <v>33.25815547544175</v>
       </c>
       <c r="G23" t="n">
         <v>33.25815547544175</v>
@@ -5990,19 +5990,19 @@
         <v>204.1339214701609</v>
       </c>
       <c r="K23" t="n">
-        <v>580.9772039711378</v>
+        <v>260.0732455256847</v>
       </c>
       <c r="L23" t="n">
-        <v>687.2766438133507</v>
+        <v>366.3726853678976</v>
       </c>
       <c r="M23" t="n">
-        <v>837.224689791229</v>
+        <v>777.9423593764891</v>
       </c>
       <c r="N23" t="n">
-        <v>994.212860297718</v>
+        <v>1189.512033385081</v>
       </c>
       <c r="O23" t="n">
-        <v>1251.308423937018</v>
+        <v>1569.889145026786</v>
       </c>
       <c r="P23" t="n">
         <v>1650.525771832436</v>
@@ -6011,28 +6011,28 @@
         <v>1662.907773772087</v>
       </c>
       <c r="R23" t="n">
-        <v>1649.493343185324</v>
+        <v>1662.907773772087</v>
       </c>
       <c r="S23" t="n">
-        <v>1649.493343185324</v>
+        <v>1662.907773772087</v>
       </c>
       <c r="T23" t="n">
-        <v>1649.493343185324</v>
+        <v>1662.907773772087</v>
       </c>
       <c r="U23" t="n">
-        <v>1649.493343185324</v>
+        <v>1480.694788326018</v>
       </c>
       <c r="V23" t="n">
-        <v>1649.493343185324</v>
+        <v>1149.631900982447</v>
       </c>
       <c r="W23" t="n">
-        <v>1296.72468791521</v>
+        <v>796.8632457123333</v>
       </c>
       <c r="X23" t="n">
-        <v>923.25892965413</v>
+        <v>423.3974874512535</v>
       </c>
       <c r="Y23" t="n">
-        <v>533.1195976783183</v>
+        <v>33.25815547544175</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>578.8014222964418</v>
+        <v>599.1874280924844</v>
       </c>
       <c r="C24" t="n">
-        <v>404.3483930153149</v>
+        <v>424.7343988113574</v>
       </c>
       <c r="D24" t="n">
-        <v>255.4139833540636</v>
+        <v>275.7999891501062</v>
       </c>
       <c r="E24" t="n">
-        <v>96.17652834860809</v>
+        <v>116.5625341446507</v>
       </c>
       <c r="F24" t="n">
         <v>33.25815547544175</v>
@@ -6069,19 +6069,19 @@
         <v>141.3372114027051</v>
       </c>
       <c r="K24" t="n">
-        <v>219.5369767295261</v>
+        <v>190.8617910335068</v>
       </c>
       <c r="L24" t="n">
-        <v>332.4514269110226</v>
+        <v>602.4314650420984</v>
       </c>
       <c r="M24" t="n">
-        <v>744.0211009196141</v>
+        <v>753.5541707456258</v>
       </c>
       <c r="N24" t="n">
-        <v>1155.590774928206</v>
+        <v>923.0852897052278</v>
       </c>
       <c r="O24" t="n">
-        <v>1567.160448936797</v>
+        <v>1334.654963713819</v>
       </c>
       <c r="P24" t="n">
         <v>1654.465713139073</v>
@@ -6099,19 +6099,19 @@
         <v>1437.251920811241</v>
       </c>
       <c r="U24" t="n">
-        <v>1209.105616250244</v>
+        <v>1437.251920811241</v>
       </c>
       <c r="V24" t="n">
-        <v>1209.105616250244</v>
+        <v>1437.251920811241</v>
       </c>
       <c r="W24" t="n">
-        <v>954.8682595220428</v>
+        <v>1183.014564083039</v>
       </c>
       <c r="X24" t="n">
-        <v>747.0167593165099</v>
+        <v>975.1630638775064</v>
       </c>
       <c r="Y24" t="n">
-        <v>747.0167593165099</v>
+        <v>767.4027651125525</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.2975708237952</v>
+        <v>452.9324687259294</v>
       </c>
       <c r="C25" t="n">
-        <v>185.2975708237952</v>
+        <v>452.9324687259294</v>
       </c>
       <c r="D25" t="n">
-        <v>185.2975708237952</v>
+        <v>452.9324687259294</v>
       </c>
       <c r="E25" t="n">
-        <v>185.2975708237952</v>
+        <v>452.9324687259294</v>
       </c>
       <c r="F25" t="n">
-        <v>185.2975708237952</v>
+        <v>452.9324687259294</v>
       </c>
       <c r="G25" t="n">
-        <v>185.2975708237952</v>
+        <v>315.7568515144561</v>
       </c>
       <c r="H25" t="n">
-        <v>185.2975708237952</v>
+        <v>160.6505364613007</v>
       </c>
       <c r="I25" t="n">
-        <v>57.90518983793623</v>
+        <v>33.25815547544175</v>
       </c>
       <c r="J25" t="n">
         <v>33.25815547544175</v>
@@ -6166,31 +6166,31 @@
         <v>951.1995364045008</v>
       </c>
       <c r="Q25" t="n">
-        <v>946.6660444200346</v>
+        <v>951.1995364045008</v>
       </c>
       <c r="R25" t="n">
-        <v>946.6660444200346</v>
+        <v>951.1995364045008</v>
       </c>
       <c r="S25" t="n">
-        <v>946.6660444200346</v>
+        <v>742.0898701295558</v>
       </c>
       <c r="T25" t="n">
-        <v>720.6275575300758</v>
+        <v>742.0898701295558</v>
       </c>
       <c r="U25" t="n">
-        <v>720.6275575300758</v>
+        <v>452.9324687259294</v>
       </c>
       <c r="V25" t="n">
-        <v>474.7147408607558</v>
+        <v>452.9324687259294</v>
       </c>
       <c r="W25" t="n">
-        <v>185.2975708237952</v>
+        <v>452.9324687259294</v>
       </c>
       <c r="X25" t="n">
-        <v>185.2975708237952</v>
+        <v>452.9324687259294</v>
       </c>
       <c r="Y25" t="n">
-        <v>185.2975708237952</v>
+        <v>452.9324687259294</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1181.955529844152</v>
+        <v>813.206577205461</v>
       </c>
       <c r="C26" t="n">
-        <v>1181.955529844152</v>
+        <v>444.2440602650493</v>
       </c>
       <c r="D26" t="n">
-        <v>1181.955529844152</v>
+        <v>444.2440602650493</v>
       </c>
       <c r="E26" t="n">
-        <v>1181.955529844152</v>
+        <v>444.2440602650493</v>
       </c>
       <c r="F26" t="n">
-        <v>770.9696250545446</v>
+        <v>33.25815547544175</v>
       </c>
       <c r="G26" t="n">
-        <v>353.668292966227</v>
+        <v>33.25815547544175</v>
       </c>
       <c r="H26" t="n">
         <v>33.25815547544175</v>
@@ -6224,52 +6224,52 @@
         <v>33.25815547544175</v>
       </c>
       <c r="J26" t="n">
-        <v>36.72827244980791</v>
+        <v>204.1339214701609</v>
       </c>
       <c r="K26" t="n">
-        <v>92.66759650533163</v>
+        <v>260.0732455256847</v>
       </c>
       <c r="L26" t="n">
-        <v>504.2372705139232</v>
+        <v>671.6429195342762</v>
       </c>
       <c r="M26" t="n">
-        <v>915.8069445225148</v>
+        <v>1083.212593542868</v>
       </c>
       <c r="N26" t="n">
-        <v>1327.376618531106</v>
+        <v>1240.200764049357</v>
       </c>
       <c r="O26" t="n">
-        <v>1462.280835032526</v>
+        <v>1375.104980550776</v>
       </c>
       <c r="P26" t="n">
-        <v>1650.525771832436</v>
+        <v>1455.741607356427</v>
       </c>
       <c r="Q26" t="n">
         <v>1662.907773772087</v>
       </c>
       <c r="R26" t="n">
-        <v>1662.907773772087</v>
+        <v>1649.493343185324</v>
       </c>
       <c r="S26" t="n">
-        <v>1662.907773772087</v>
+        <v>1576.811667442353</v>
       </c>
       <c r="T26" t="n">
-        <v>1662.907773772087</v>
+        <v>1576.811667442353</v>
       </c>
       <c r="U26" t="n">
-        <v>1513.018417187723</v>
+        <v>1576.811667442353</v>
       </c>
       <c r="V26" t="n">
-        <v>1181.955529844152</v>
+        <v>1576.811667442353</v>
       </c>
       <c r="W26" t="n">
-        <v>1181.955529844152</v>
+        <v>1576.811667442353</v>
       </c>
       <c r="X26" t="n">
-        <v>1181.955529844152</v>
+        <v>1203.345909181273</v>
       </c>
       <c r="Y26" t="n">
-        <v>1181.955529844152</v>
+        <v>813.206577205461</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>33.25815547544175</v>
+        <v>799.9732645340356</v>
       </c>
       <c r="C27" t="n">
-        <v>33.25815547544175</v>
+        <v>625.5202352529086</v>
       </c>
       <c r="D27" t="n">
-        <v>33.25815547544175</v>
+        <v>476.5858255916574</v>
       </c>
       <c r="E27" t="n">
-        <v>33.25815547544175</v>
+        <v>317.3483705862019</v>
       </c>
       <c r="F27" t="n">
-        <v>33.25815547544175</v>
+        <v>170.8138126130869</v>
       </c>
       <c r="G27" t="n">
         <v>33.25815547544175</v>
@@ -6306,19 +6306,19 @@
         <v>33.25815547544175</v>
       </c>
       <c r="K27" t="n">
-        <v>219.5369767295261</v>
+        <v>82.78273510624351</v>
       </c>
       <c r="L27" t="n">
-        <v>332.4514269110226</v>
+        <v>494.352409114835</v>
       </c>
       <c r="M27" t="n">
-        <v>744.0211009196141</v>
+        <v>645.4751148183625</v>
       </c>
       <c r="N27" t="n">
-        <v>1155.590774928206</v>
+        <v>1057.044788826954</v>
       </c>
       <c r="O27" t="n">
-        <v>1567.160448936797</v>
+        <v>1468.614462835546</v>
       </c>
       <c r="P27" t="n">
         <v>1654.465713139073</v>
@@ -6330,25 +6330,25 @@
         <v>1634.701762605631</v>
       </c>
       <c r="S27" t="n">
-        <v>1483.112653427773</v>
+        <v>1634.701762605631</v>
       </c>
       <c r="T27" t="n">
-        <v>1285.662811633384</v>
+        <v>1634.701762605631</v>
       </c>
       <c r="U27" t="n">
-        <v>1057.516507072387</v>
+        <v>1634.701762605631</v>
       </c>
       <c r="V27" t="n">
-        <v>822.3643988406445</v>
+        <v>1634.701762605631</v>
       </c>
       <c r="W27" t="n">
-        <v>568.127042112443</v>
+        <v>1383.80040052459</v>
       </c>
       <c r="X27" t="n">
-        <v>360.2755419069101</v>
+        <v>1175.948900319057</v>
       </c>
       <c r="Y27" t="n">
-        <v>152.5152431419562</v>
+        <v>968.1886015541036</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.1995364045008</v>
+        <v>146.5864780739549</v>
       </c>
       <c r="C28" t="n">
-        <v>951.1995364045008</v>
+        <v>146.5864780739549</v>
       </c>
       <c r="D28" t="n">
-        <v>803.9095632858189</v>
+        <v>146.5864780739549</v>
       </c>
       <c r="E28" t="n">
-        <v>655.9964697034258</v>
+        <v>146.5864780739549</v>
       </c>
       <c r="F28" t="n">
-        <v>509.1065222055154</v>
+        <v>146.5864780739549</v>
       </c>
       <c r="G28" t="n">
-        <v>340.4038858769507</v>
+        <v>146.5864780739549</v>
       </c>
       <c r="H28" t="n">
-        <v>185.2975708237952</v>
+        <v>146.5864780739549</v>
       </c>
       <c r="I28" t="n">
-        <v>57.90518983793623</v>
+        <v>33.25815547544175</v>
       </c>
       <c r="J28" t="n">
         <v>33.25815547544175</v>
@@ -6412,22 +6412,22 @@
         <v>951.1995364045008</v>
       </c>
       <c r="T28" t="n">
-        <v>951.1995364045008</v>
+        <v>725.161049514542</v>
       </c>
       <c r="U28" t="n">
-        <v>951.1995364045008</v>
+        <v>436.0036481109155</v>
       </c>
       <c r="V28" t="n">
-        <v>951.1995364045008</v>
+        <v>436.0036481109155</v>
       </c>
       <c r="W28" t="n">
-        <v>951.1995364045008</v>
+        <v>146.5864780739549</v>
       </c>
       <c r="X28" t="n">
-        <v>951.1995364045008</v>
+        <v>146.5864780739549</v>
       </c>
       <c r="Y28" t="n">
-        <v>951.1995364045008</v>
+        <v>146.5864780739549</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>760.486371022604</v>
+        <v>450.5594875637593</v>
       </c>
       <c r="C29" t="n">
-        <v>391.5238540821923</v>
+        <v>450.5594875637593</v>
       </c>
       <c r="D29" t="n">
-        <v>33.25815547544175</v>
+        <v>450.5594875637593</v>
       </c>
       <c r="E29" t="n">
-        <v>33.25815547544175</v>
+        <v>450.5594875637593</v>
       </c>
       <c r="F29" t="n">
-        <v>33.25815547544175</v>
+        <v>450.5594875637593</v>
       </c>
       <c r="G29" t="n">
         <v>33.25815547544175</v>
@@ -6461,52 +6461,52 @@
         <v>33.25815547544175</v>
       </c>
       <c r="J29" t="n">
-        <v>36.72827244980791</v>
+        <v>131.0260955206782</v>
       </c>
       <c r="K29" t="n">
-        <v>413.5715549507847</v>
+        <v>186.9654195762019</v>
       </c>
       <c r="L29" t="n">
-        <v>825.1412289593763</v>
+        <v>293.2648594184148</v>
       </c>
       <c r="M29" t="n">
-        <v>1236.710902967968</v>
+        <v>704.8345334270064</v>
       </c>
       <c r="N29" t="n">
-        <v>1393.699073474457</v>
+        <v>1116.404207435598</v>
       </c>
       <c r="O29" t="n">
-        <v>1528.603289975877</v>
+        <v>1251.308423937018</v>
       </c>
       <c r="P29" t="n">
-        <v>1609.239916781527</v>
+        <v>1650.525771832436</v>
       </c>
       <c r="Q29" t="n">
         <v>1662.907773772087</v>
       </c>
       <c r="R29" t="n">
-        <v>1649.493343185324</v>
+        <v>1662.907773772087</v>
       </c>
       <c r="S29" t="n">
-        <v>1649.493343185324</v>
+        <v>1662.907773772087</v>
       </c>
       <c r="T29" t="n">
-        <v>1433.758664906464</v>
+        <v>1662.907773772087</v>
       </c>
       <c r="U29" t="n">
-        <v>1180.049877625635</v>
+        <v>1662.907773772087</v>
       </c>
       <c r="V29" t="n">
-        <v>1150.625702998416</v>
+        <v>1563.393741159075</v>
       </c>
       <c r="W29" t="n">
-        <v>1150.625702998416</v>
+        <v>1210.625085888961</v>
       </c>
       <c r="X29" t="n">
-        <v>1150.625702998416</v>
+        <v>837.1593276278811</v>
       </c>
       <c r="Y29" t="n">
-        <v>760.486371022604</v>
+        <v>837.1593276278811</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>653.4387065609207</v>
+        <v>404.0845341709759</v>
       </c>
       <c r="C30" t="n">
-        <v>478.9856772797937</v>
+        <v>229.6315048898488</v>
       </c>
       <c r="D30" t="n">
-        <v>330.0512676185424</v>
+        <v>229.6315048898488</v>
       </c>
       <c r="E30" t="n">
-        <v>170.8138126130869</v>
+        <v>229.6315048898488</v>
       </c>
       <c r="F30" t="n">
-        <v>170.8138126130869</v>
+        <v>83.09694691673381</v>
       </c>
       <c r="G30" t="n">
-        <v>33.25815547544175</v>
+        <v>83.09694691673381</v>
       </c>
       <c r="H30" t="n">
-        <v>33.25815547544175</v>
+        <v>83.09694691673381</v>
       </c>
       <c r="I30" t="n">
         <v>33.25815547544175</v>
       </c>
       <c r="J30" t="n">
-        <v>33.25815547544175</v>
+        <v>141.3372114027051</v>
       </c>
       <c r="K30" t="n">
-        <v>219.5369767295261</v>
+        <v>190.8617910335068</v>
       </c>
       <c r="L30" t="n">
-        <v>332.4514269110226</v>
+        <v>602.4314650420984</v>
       </c>
       <c r="M30" t="n">
-        <v>744.0211009196141</v>
+        <v>986.0596559686039</v>
       </c>
       <c r="N30" t="n">
         <v>1155.590774928206</v>
@@ -6564,28 +6564,28 @@
         <v>1662.907773772087</v>
       </c>
       <c r="R30" t="n">
-        <v>1634.701762605631</v>
+        <v>1662.907773772087</v>
       </c>
       <c r="S30" t="n">
-        <v>1483.112653427773</v>
+        <v>1662.907773772087</v>
       </c>
       <c r="T30" t="n">
-        <v>1285.662811633384</v>
+        <v>1465.457931977697</v>
       </c>
       <c r="U30" t="n">
-        <v>1057.516507072387</v>
+        <v>1465.457931977697</v>
       </c>
       <c r="V30" t="n">
-        <v>1029.414342345942</v>
+        <v>1230.305823745955</v>
       </c>
       <c r="W30" t="n">
-        <v>1029.414342345942</v>
+        <v>976.0684670177532</v>
       </c>
       <c r="X30" t="n">
-        <v>1029.414342345942</v>
+        <v>768.2169668122203</v>
       </c>
       <c r="Y30" t="n">
-        <v>821.6540435809886</v>
+        <v>560.4566680472665</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1211.698762166322</v>
+        <v>1442.115194628557</v>
       </c>
       <c r="C31" t="n">
-        <v>1211.698762166322</v>
+        <v>1273.17901170065</v>
       </c>
       <c r="D31" t="n">
-        <v>1061.582122753986</v>
+        <v>1123.062372288315</v>
       </c>
       <c r="E31" t="n">
-        <v>913.6690291715928</v>
+        <v>1123.062372288315</v>
       </c>
       <c r="F31" t="n">
-        <v>913.6690291715928</v>
+        <v>1123.062372288315</v>
       </c>
       <c r="G31" t="n">
-        <v>744.9663928430281</v>
+        <v>1052.112123244537</v>
       </c>
       <c r="H31" t="n">
-        <v>744.9663928430281</v>
+        <v>897.0058081913816</v>
       </c>
       <c r="I31" t="n">
-        <v>744.9663928430281</v>
+        <v>769.6134272055226</v>
       </c>
       <c r="J31" t="n">
         <v>744.9663928430281</v>
@@ -6661,10 +6661,10 @@
         <v>1662.907773772087</v>
       </c>
       <c r="X31" t="n">
-        <v>1614.139806140091</v>
+        <v>1662.907773772087</v>
       </c>
       <c r="Y31" t="n">
-        <v>1393.347226996561</v>
+        <v>1442.115194628557</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1289.442015511007</v>
+        <v>1146.274623620848</v>
       </c>
       <c r="C32" t="n">
-        <v>1289.442015511007</v>
+        <v>777.3121066804365</v>
       </c>
       <c r="D32" t="n">
-        <v>1289.442015511007</v>
+        <v>419.046408073686</v>
       </c>
       <c r="E32" t="n">
-        <v>903.6537629127631</v>
+        <v>33.25815547544175</v>
       </c>
       <c r="F32" t="n">
-        <v>492.6678581231556</v>
+        <v>33.25815547544175</v>
       </c>
       <c r="G32" t="n">
-        <v>75.36652603483799</v>
+        <v>33.25815547544175</v>
       </c>
       <c r="H32" t="n">
         <v>33.25815547544175</v>
@@ -6701,49 +6701,49 @@
         <v>204.1339214701609</v>
       </c>
       <c r="K32" t="n">
-        <v>260.0732455256847</v>
+        <v>580.9772039711378</v>
       </c>
       <c r="L32" t="n">
-        <v>366.3726853678976</v>
+        <v>687.2766438133507</v>
       </c>
       <c r="M32" t="n">
-        <v>749.2241961758039</v>
+        <v>837.224689791229</v>
       </c>
       <c r="N32" t="n">
-        <v>906.2123666822928</v>
+        <v>994.212860297718</v>
       </c>
       <c r="O32" t="n">
-        <v>1041.116583183712</v>
+        <v>1405.78253430631</v>
       </c>
       <c r="P32" t="n">
-        <v>1440.33393107913</v>
+        <v>1486.41916111196</v>
       </c>
       <c r="Q32" t="n">
         <v>1662.907773772087</v>
       </c>
       <c r="R32" t="n">
-        <v>1662.907773772087</v>
+        <v>1649.493343185324</v>
       </c>
       <c r="S32" t="n">
-        <v>1662.907773772087</v>
+        <v>1536.41395559666</v>
       </c>
       <c r="T32" t="n">
-        <v>1662.907773772087</v>
+        <v>1536.41395559666</v>
       </c>
       <c r="U32" t="n">
-        <v>1662.907773772087</v>
+        <v>1536.41395559666</v>
       </c>
       <c r="V32" t="n">
-        <v>1662.907773772087</v>
+        <v>1536.41395559666</v>
       </c>
       <c r="W32" t="n">
-        <v>1662.907773772087</v>
+        <v>1536.41395559666</v>
       </c>
       <c r="X32" t="n">
-        <v>1289.442015511007</v>
+        <v>1536.41395559666</v>
       </c>
       <c r="Y32" t="n">
-        <v>1289.442015511007</v>
+        <v>1146.274623620848</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>727.539719301531</v>
+        <v>653.4844914261462</v>
       </c>
       <c r="C33" t="n">
-        <v>727.539719301531</v>
+        <v>479.0314621450192</v>
       </c>
       <c r="D33" t="n">
-        <v>578.6053096402798</v>
+        <v>330.0970524837679</v>
       </c>
       <c r="E33" t="n">
-        <v>419.3678546348243</v>
+        <v>330.0970524837679</v>
       </c>
       <c r="F33" t="n">
         <v>272.8332966617093</v>
@@ -6780,22 +6780,22 @@
         <v>33.25815547544175</v>
       </c>
       <c r="K33" t="n">
-        <v>344.6033197486964</v>
+        <v>82.78273510624351</v>
       </c>
       <c r="L33" t="n">
-        <v>457.5177699301929</v>
+        <v>494.352409114835</v>
       </c>
       <c r="M33" t="n">
-        <v>869.0874439387844</v>
+        <v>645.4751148183625</v>
       </c>
       <c r="N33" t="n">
-        <v>1038.618562898386</v>
+        <v>815.0062337779643</v>
       </c>
       <c r="O33" t="n">
-        <v>1171.486620955255</v>
+        <v>1226.575907786556</v>
       </c>
       <c r="P33" t="n">
-        <v>1446.489198280582</v>
+        <v>1629.159312942369</v>
       </c>
       <c r="Q33" t="n">
         <v>1662.907773772087</v>
@@ -6807,22 +6807,22 @@
         <v>1662.907773772087</v>
       </c>
       <c r="T33" t="n">
-        <v>1625.535179561216</v>
+        <v>1465.457931977697</v>
       </c>
       <c r="U33" t="n">
-        <v>1397.388875000219</v>
+        <v>1237.311627416701</v>
       </c>
       <c r="V33" t="n">
-        <v>1397.388875000219</v>
+        <v>1237.311627416701</v>
       </c>
       <c r="W33" t="n">
-        <v>1143.151518272018</v>
+        <v>1237.311627416701</v>
       </c>
       <c r="X33" t="n">
-        <v>935.3000180664849</v>
+        <v>1029.460127211168</v>
       </c>
       <c r="Y33" t="n">
-        <v>727.539719301531</v>
+        <v>821.6998284462143</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>33.25815547544175</v>
+        <v>226.607826166501</v>
       </c>
       <c r="C34" t="n">
-        <v>33.25815547544175</v>
+        <v>226.607826166501</v>
       </c>
       <c r="D34" t="n">
-        <v>33.25815547544175</v>
+        <v>226.607826166501</v>
       </c>
       <c r="E34" t="n">
-        <v>33.25815547544175</v>
+        <v>226.607826166501</v>
       </c>
       <c r="F34" t="n">
-        <v>33.25815547544175</v>
+        <v>226.607826166501</v>
       </c>
       <c r="G34" t="n">
-        <v>33.25815547544175</v>
+        <v>57.90518983793623</v>
       </c>
       <c r="H34" t="n">
-        <v>33.25815547544175</v>
+        <v>57.90518983793623</v>
       </c>
       <c r="I34" t="n">
-        <v>33.25815547544175</v>
+        <v>57.90518983793623</v>
       </c>
       <c r="J34" t="n">
         <v>33.25815547544175</v>
@@ -6880,28 +6880,28 @@
         <v>951.1995364045008</v>
       </c>
       <c r="R34" t="n">
-        <v>816.4144488671091</v>
+        <v>951.1995364045008</v>
       </c>
       <c r="S34" t="n">
-        <v>803.1385319749139</v>
+        <v>951.1995364045008</v>
       </c>
       <c r="T34" t="n">
-        <v>577.1000450849551</v>
+        <v>770.4497157760143</v>
       </c>
       <c r="U34" t="n">
-        <v>287.9426436813286</v>
+        <v>481.2923143723879</v>
       </c>
       <c r="V34" t="n">
-        <v>33.25815547544175</v>
+        <v>226.607826166501</v>
       </c>
       <c r="W34" t="n">
-        <v>33.25815547544175</v>
+        <v>226.607826166501</v>
       </c>
       <c r="X34" t="n">
-        <v>33.25815547544175</v>
+        <v>226.607826166501</v>
       </c>
       <c r="Y34" t="n">
-        <v>33.25815547544175</v>
+        <v>226.607826166501</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6920,16 @@
         <v>463.6067580449794</v>
       </c>
       <c r="E35" t="n">
-        <v>463.6067580449794</v>
+        <v>255.2675577970111</v>
       </c>
       <c r="F35" t="n">
-        <v>463.6067580449794</v>
+        <v>18.7334975699808</v>
       </c>
       <c r="G35" t="n">
-        <v>383.193427291632</v>
+        <v>18.7334975699808</v>
       </c>
       <c r="H35" t="n">
-        <v>146.6593670646017</v>
+        <v>18.7334975699808</v>
       </c>
       <c r="I35" t="n">
         <v>18.7334975699808</v>
@@ -6938,13 +6938,13 @@
         <v>22.20361454434697</v>
       </c>
       <c r="K35" t="n">
-        <v>78.14293859987069</v>
+        <v>213.6373904751045</v>
       </c>
       <c r="L35" t="n">
-        <v>309.9699710283831</v>
+        <v>319.9368303173175</v>
       </c>
       <c r="M35" t="n">
-        <v>476.9250008238064</v>
+        <v>551.7638627458299</v>
       </c>
       <c r="N35" t="n">
         <v>708.7520332523188</v>
@@ -6980,7 +6980,7 @@
         <v>700.1408182720097</v>
       </c>
       <c r="Y35" t="n">
-        <v>463.6067580449794</v>
+        <v>700.1408182720097</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>18.7334975699808</v>
+        <v>156.289154707626</v>
       </c>
       <c r="C36" t="n">
-        <v>18.7334975699808</v>
+        <v>156.289154707626</v>
       </c>
       <c r="D36" t="n">
-        <v>18.7334975699808</v>
+        <v>156.289154707626</v>
       </c>
       <c r="E36" t="n">
-        <v>18.7334975699808</v>
+        <v>156.289154707626</v>
       </c>
       <c r="F36" t="n">
-        <v>18.7334975699808</v>
+        <v>156.289154707626</v>
       </c>
       <c r="G36" t="n">
         <v>18.7334975699808</v>
@@ -7014,13 +7014,13 @@
         <v>18.7334975699808</v>
       </c>
       <c r="J36" t="n">
-        <v>18.7334975699808</v>
+        <v>126.8125534972442</v>
       </c>
       <c r="K36" t="n">
-        <v>193.7868940372705</v>
+        <v>176.3371331280459</v>
       </c>
       <c r="L36" t="n">
-        <v>306.701344218767</v>
+        <v>387.4056709437519</v>
       </c>
       <c r="M36" t="n">
         <v>538.5283766472794</v>
@@ -7038,28 +7038,28 @@
         <v>936.67487849904</v>
       </c>
       <c r="R36" t="n">
-        <v>936.67487849904</v>
+        <v>908.4688673325834</v>
       </c>
       <c r="S36" t="n">
-        <v>936.67487849904</v>
+        <v>756.8797581547262</v>
       </c>
       <c r="T36" t="n">
-        <v>926.4174707952832</v>
+        <v>619.5875675003651</v>
       </c>
       <c r="U36" t="n">
-        <v>698.2711662342867</v>
+        <v>391.4412629393687</v>
       </c>
       <c r="V36" t="n">
-        <v>463.119058002544</v>
+        <v>156.289154707626</v>
       </c>
       <c r="W36" t="n">
-        <v>226.5849977755136</v>
+        <v>156.289154707626</v>
       </c>
       <c r="X36" t="n">
-        <v>18.7334975699808</v>
+        <v>156.289154707626</v>
       </c>
       <c r="Y36" t="n">
-        <v>18.7334975699808</v>
+        <v>156.289154707626</v>
       </c>
     </row>
     <row r="37">
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>270.2385728535345</v>
+        <v>18.7334975699808</v>
       </c>
       <c r="C37" t="n">
-        <v>101.3023899256276</v>
+        <v>18.7334975699808</v>
       </c>
       <c r="D37" t="n">
         <v>18.7334975699808</v>
@@ -7096,49 +7096,49 @@
         <v>18.7334975699808</v>
       </c>
       <c r="K37" t="n">
-        <v>108.8736882658833</v>
+        <v>108.8736882658834</v>
       </c>
       <c r="L37" t="n">
-        <v>279.7485327781404</v>
+        <v>279.7485327781405</v>
       </c>
       <c r="M37" t="n">
-        <v>470.3012209897373</v>
+        <v>470.3012209897374</v>
       </c>
       <c r="N37" t="n">
-        <v>661.7576086037154</v>
+        <v>661.7576086037155</v>
       </c>
       <c r="O37" t="n">
-        <v>822.5822751650335</v>
+        <v>822.5822751650336</v>
       </c>
       <c r="P37" t="n">
-        <v>936.6748784990399</v>
+        <v>936.67487849904</v>
       </c>
       <c r="Q37" t="n">
-        <v>936.6748784990399</v>
+        <v>932.1413865145738</v>
       </c>
       <c r="R37" t="n">
-        <v>936.6748784990399</v>
+        <v>926.9497711889452</v>
       </c>
       <c r="S37" t="n">
-        <v>727.5652122240949</v>
+        <v>717.8401049140002</v>
       </c>
       <c r="T37" t="n">
-        <v>727.5652122240949</v>
+        <v>491.8016180240414</v>
       </c>
       <c r="U37" t="n">
-        <v>727.5652122240949</v>
+        <v>255.2675577970111</v>
       </c>
       <c r="V37" t="n">
-        <v>491.0311519970646</v>
+        <v>18.7334975699808</v>
       </c>
       <c r="W37" t="n">
-        <v>491.0311519970646</v>
+        <v>18.7334975699808</v>
       </c>
       <c r="X37" t="n">
-        <v>491.0311519970646</v>
+        <v>18.7334975699808</v>
       </c>
       <c r="Y37" t="n">
-        <v>270.2385728535345</v>
+        <v>18.7334975699808</v>
       </c>
     </row>
     <row r="38">
@@ -7172,22 +7172,22 @@
         <v>18.7334975699808</v>
       </c>
       <c r="J38" t="n">
-        <v>22.20361454434697</v>
+        <v>39.21059836189192</v>
       </c>
       <c r="K38" t="n">
-        <v>144.3259713028765</v>
+        <v>95.14992241741564</v>
       </c>
       <c r="L38" t="n">
-        <v>250.6254111450894</v>
+        <v>326.976954845928</v>
       </c>
       <c r="M38" t="n">
-        <v>400.5734571229677</v>
+        <v>476.9250008238064</v>
       </c>
       <c r="N38" t="n">
-        <v>557.5616276294567</v>
+        <v>708.7520332523188</v>
       </c>
       <c r="O38" t="n">
-        <v>692.4658441308763</v>
+        <v>843.6562497537385</v>
       </c>
       <c r="P38" t="n">
         <v>924.2928765593888</v>
@@ -7196,16 +7196,16 @@
         <v>936.67487849904</v>
       </c>
       <c r="R38" t="n">
-        <v>936.67487849904</v>
+        <v>923.2604479122767</v>
       </c>
       <c r="S38" t="n">
-        <v>936.67487849904</v>
+        <v>762.1791323839781</v>
       </c>
       <c r="T38" t="n">
-        <v>728.3356782510717</v>
+        <v>546.444454105118</v>
       </c>
       <c r="U38" t="n">
-        <v>491.8016180240414</v>
+        <v>309.9103938780877</v>
       </c>
       <c r="V38" t="n">
         <v>255.2675577970111</v>
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.1865268511078</v>
+        <v>156.289154707626</v>
       </c>
       <c r="C39" t="n">
-        <v>18.7334975699808</v>
+        <v>156.289154707626</v>
       </c>
       <c r="D39" t="n">
-        <v>18.7334975699808</v>
+        <v>156.289154707626</v>
       </c>
       <c r="E39" t="n">
-        <v>18.7334975699808</v>
+        <v>156.289154707626</v>
       </c>
       <c r="F39" t="n">
-        <v>18.7334975699808</v>
+        <v>156.289154707626</v>
       </c>
       <c r="G39" t="n">
         <v>18.7334975699808</v>
@@ -7251,25 +7251,25 @@
         <v>18.7334975699808</v>
       </c>
       <c r="J39" t="n">
-        <v>18.7334975699808</v>
+        <v>126.8125534972442</v>
       </c>
       <c r="K39" t="n">
-        <v>155.5786385152395</v>
+        <v>176.3371331280459</v>
       </c>
       <c r="L39" t="n">
-        <v>387.4056709437519</v>
+        <v>289.2515833095424</v>
       </c>
       <c r="M39" t="n">
-        <v>538.5283766472794</v>
+        <v>440.3742890130699</v>
       </c>
       <c r="N39" t="n">
-        <v>708.0594956068813</v>
+        <v>609.9054079726718</v>
       </c>
       <c r="O39" t="n">
-        <v>840.92755366375</v>
+        <v>742.7734660295405</v>
       </c>
       <c r="P39" t="n">
-        <v>928.2328178660254</v>
+        <v>830.0787302318158</v>
       </c>
       <c r="Q39" t="n">
         <v>936.67487849904</v>
@@ -7278,25 +7278,25 @@
         <v>908.4688673325834</v>
       </c>
       <c r="S39" t="n">
-        <v>872.6329940748349</v>
+        <v>808.435013905143</v>
       </c>
       <c r="T39" t="n">
-        <v>872.6329940748349</v>
+        <v>808.435013905143</v>
       </c>
       <c r="U39" t="n">
-        <v>872.6329940748349</v>
+        <v>808.435013905143</v>
       </c>
       <c r="V39" t="n">
-        <v>637.4808858430921</v>
+        <v>808.435013905143</v>
       </c>
       <c r="W39" t="n">
-        <v>400.9468256160617</v>
+        <v>571.9009536781127</v>
       </c>
       <c r="X39" t="n">
-        <v>400.9468256160617</v>
+        <v>364.0494534725799</v>
       </c>
       <c r="Y39" t="n">
-        <v>193.1865268511078</v>
+        <v>156.289154707626</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>18.7334975699808</v>
+        <v>569.3667480791646</v>
       </c>
       <c r="C40" t="n">
-        <v>18.7334975699808</v>
+        <v>569.3667480791646</v>
       </c>
       <c r="D40" t="n">
-        <v>18.7334975699808</v>
+        <v>419.2501086668289</v>
       </c>
       <c r="E40" t="n">
-        <v>18.7334975699808</v>
+        <v>419.2501086668289</v>
       </c>
       <c r="F40" t="n">
-        <v>18.7334975699808</v>
+        <v>419.2501086668289</v>
       </c>
       <c r="G40" t="n">
-        <v>18.7334975699808</v>
+        <v>301.2321936089952</v>
       </c>
       <c r="H40" t="n">
-        <v>18.7334975699808</v>
+        <v>146.1258785558397</v>
       </c>
       <c r="I40" t="n">
         <v>18.7334975699808</v>
@@ -7333,49 +7333,49 @@
         <v>18.7334975699808</v>
       </c>
       <c r="K40" t="n">
-        <v>108.8736882658834</v>
+        <v>108.8736882658833</v>
       </c>
       <c r="L40" t="n">
-        <v>279.7485327781405</v>
+        <v>279.7485327781404</v>
       </c>
       <c r="M40" t="n">
-        <v>470.3012209897374</v>
+        <v>470.3012209897373</v>
       </c>
       <c r="N40" t="n">
-        <v>661.7576086037155</v>
+        <v>661.7576086037154</v>
       </c>
       <c r="O40" t="n">
-        <v>822.5822751650336</v>
+        <v>822.5822751650335</v>
       </c>
       <c r="P40" t="n">
-        <v>936.67487849904</v>
+        <v>936.6748784990399</v>
       </c>
       <c r="Q40" t="n">
-        <v>936.67487849904</v>
+        <v>932.1413865145737</v>
       </c>
       <c r="R40" t="n">
-        <v>936.67487849904</v>
+        <v>797.356298977182</v>
       </c>
       <c r="S40" t="n">
-        <v>936.67487849904</v>
+        <v>797.356298977182</v>
       </c>
       <c r="T40" t="n">
-        <v>936.67487849904</v>
+        <v>797.356298977182</v>
       </c>
       <c r="U40" t="n">
-        <v>700.1408182720097</v>
+        <v>797.356298977182</v>
       </c>
       <c r="V40" t="n">
-        <v>463.6067580449794</v>
+        <v>797.356298977182</v>
       </c>
       <c r="W40" t="n">
-        <v>227.0726978179491</v>
+        <v>797.356298977182</v>
       </c>
       <c r="X40" t="n">
-        <v>227.0726978179491</v>
+        <v>569.3667480791646</v>
       </c>
       <c r="Y40" t="n">
-        <v>18.7334975699808</v>
+        <v>569.3667480791646</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>450.1923274582161</v>
+        <v>700.1408182720097</v>
       </c>
       <c r="C41" t="n">
-        <v>450.1923274582161</v>
+        <v>463.6067580449794</v>
       </c>
       <c r="D41" t="n">
-        <v>450.1923274582161</v>
+        <v>227.0726978179491</v>
       </c>
       <c r="E41" t="n">
-        <v>213.6582672311858</v>
+        <v>18.7334975699808</v>
       </c>
       <c r="F41" t="n">
         <v>18.7334975699808</v>
@@ -7409,22 +7409,22 @@
         <v>18.7334975699808</v>
       </c>
       <c r="J41" t="n">
-        <v>22.20361454434697</v>
+        <v>88.38664724735278</v>
       </c>
       <c r="K41" t="n">
-        <v>254.0306469728594</v>
+        <v>144.3259713028765</v>
       </c>
       <c r="L41" t="n">
-        <v>360.3300868150723</v>
+        <v>250.6254111450894</v>
       </c>
       <c r="M41" t="n">
-        <v>510.2781327929506</v>
+        <v>400.5734571229677</v>
       </c>
       <c r="N41" t="n">
-        <v>667.2663032994395</v>
+        <v>557.5616276294567</v>
       </c>
       <c r="O41" t="n">
-        <v>802.1705198008592</v>
+        <v>692.4658441308763</v>
       </c>
       <c r="P41" t="n">
         <v>924.2928765593888</v>
@@ -7433,28 +7433,28 @@
         <v>936.67487849904</v>
       </c>
       <c r="R41" t="n">
-        <v>923.2604479122767</v>
+        <v>936.67487849904</v>
       </c>
       <c r="S41" t="n">
-        <v>923.2604479122767</v>
+        <v>936.67487849904</v>
       </c>
       <c r="T41" t="n">
-        <v>923.2604479122767</v>
+        <v>936.67487849904</v>
       </c>
       <c r="U41" t="n">
-        <v>686.7263876852464</v>
+        <v>936.67487849904</v>
       </c>
       <c r="V41" t="n">
-        <v>686.7263876852464</v>
+        <v>936.67487849904</v>
       </c>
       <c r="W41" t="n">
-        <v>686.7263876852464</v>
+        <v>936.67487849904</v>
       </c>
       <c r="X41" t="n">
-        <v>450.1923274582161</v>
+        <v>936.67487849904</v>
       </c>
       <c r="Y41" t="n">
-        <v>450.1923274582161</v>
+        <v>700.1408182720097</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>324.1651824869878</v>
+        <v>501.3583915178145</v>
       </c>
       <c r="C42" t="n">
-        <v>149.7121532058607</v>
+        <v>326.9053622366876</v>
       </c>
       <c r="D42" t="n">
-        <v>18.7334975699808</v>
+        <v>177.9709525754363</v>
       </c>
       <c r="E42" t="n">
         <v>18.7334975699808</v>
@@ -7500,13 +7500,13 @@
         <v>332.2952330858066</v>
       </c>
       <c r="N42" t="n">
-        <v>564.122265514319</v>
+        <v>501.8263520454084</v>
       </c>
       <c r="O42" t="n">
-        <v>795.9492979428314</v>
+        <v>634.6944101022772</v>
       </c>
       <c r="P42" t="n">
-        <v>928.2328178660254</v>
+        <v>721.9996743045525</v>
       </c>
       <c r="Q42" t="n">
         <v>936.67487849904</v>
@@ -7527,13 +7527,13 @@
         <v>936.67487849904</v>
       </c>
       <c r="W42" t="n">
-        <v>700.1408182720097</v>
+        <v>936.67487849904</v>
       </c>
       <c r="X42" t="n">
-        <v>700.1408182720097</v>
+        <v>877.3340273028364</v>
       </c>
       <c r="Y42" t="n">
-        <v>492.3805195070558</v>
+        <v>669.5737285378825</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>43.38053193247529</v>
+        <v>306.2442836272528</v>
       </c>
       <c r="C43" t="n">
-        <v>43.38053193247529</v>
+        <v>168.8501369823165</v>
       </c>
       <c r="D43" t="n">
-        <v>43.38053193247529</v>
+        <v>18.7334975699808</v>
       </c>
       <c r="E43" t="n">
-        <v>43.38053193247529</v>
+        <v>18.7334975699808</v>
       </c>
       <c r="F43" t="n">
-        <v>43.38053193247529</v>
+        <v>18.7334975699808</v>
       </c>
       <c r="G43" t="n">
-        <v>43.38053193247529</v>
+        <v>18.7334975699808</v>
       </c>
       <c r="H43" t="n">
-        <v>43.38053193247529</v>
+        <v>18.7334975699808</v>
       </c>
       <c r="I43" t="n">
-        <v>43.38053193247529</v>
+        <v>18.7334975699808</v>
       </c>
       <c r="J43" t="n">
         <v>18.7334975699808</v>
       </c>
       <c r="K43" t="n">
-        <v>108.8736882658833</v>
+        <v>108.8736882658834</v>
       </c>
       <c r="L43" t="n">
-        <v>279.7485327781404</v>
+        <v>279.7485327781405</v>
       </c>
       <c r="M43" t="n">
-        <v>470.3012209897373</v>
+        <v>470.3012209897374</v>
       </c>
       <c r="N43" t="n">
         <v>661.7576086037155</v>
@@ -7588,31 +7588,31 @@
         <v>936.67487849904</v>
       </c>
       <c r="Q43" t="n">
-        <v>932.1413865145738</v>
+        <v>936.67487849904</v>
       </c>
       <c r="R43" t="n">
-        <v>932.1413865145738</v>
+        <v>936.67487849904</v>
       </c>
       <c r="S43" t="n">
-        <v>932.1413865145738</v>
+        <v>936.67487849904</v>
       </c>
       <c r="T43" t="n">
-        <v>932.1413865145738</v>
+        <v>936.67487849904</v>
       </c>
       <c r="U43" t="n">
-        <v>932.1413865145738</v>
+        <v>936.67487849904</v>
       </c>
       <c r="V43" t="n">
-        <v>695.6073262875435</v>
+        <v>936.67487849904</v>
       </c>
       <c r="W43" t="n">
-        <v>673.8111268042625</v>
+        <v>936.67487849904</v>
       </c>
       <c r="X43" t="n">
-        <v>445.8215759062451</v>
+        <v>708.6853276010227</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.028996762715</v>
+        <v>487.8927484574925</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>564.7010937183754</v>
+        <v>381.308948447404</v>
       </c>
       <c r="C44" t="n">
         <v>381.308948447404</v>
@@ -7670,28 +7670,28 @@
         <v>726.2328952730472</v>
       </c>
       <c r="R44" t="n">
-        <v>726.2328952730472</v>
+        <v>725.7824092466741</v>
       </c>
       <c r="S44" t="n">
-        <v>726.2328952730472</v>
+        <v>564.7010937183754</v>
       </c>
       <c r="T44" t="n">
-        <v>726.2328952730472</v>
+        <v>381.308948447404</v>
       </c>
       <c r="U44" t="n">
-        <v>726.2328952730472</v>
+        <v>381.308948447404</v>
       </c>
       <c r="V44" t="n">
-        <v>726.2328952730472</v>
+        <v>381.308948447404</v>
       </c>
       <c r="W44" t="n">
-        <v>726.2328952730472</v>
+        <v>381.308948447404</v>
       </c>
       <c r="X44" t="n">
-        <v>726.2328952730472</v>
+        <v>381.308948447404</v>
       </c>
       <c r="Y44" t="n">
-        <v>564.7010937183754</v>
+        <v>381.308948447404</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>191.2332677110362</v>
+        <v>176.0564594601327</v>
       </c>
       <c r="C45" t="n">
-        <v>191.2332677110362</v>
+        <v>116.5441419540834</v>
       </c>
       <c r="D45" t="n">
-        <v>191.2332677110362</v>
+        <v>116.5441419540834</v>
       </c>
       <c r="E45" t="n">
-        <v>191.2332677110362</v>
+        <v>116.5441419540834</v>
       </c>
       <c r="F45" t="n">
-        <v>44.69870973792118</v>
+        <v>116.5441419540834</v>
       </c>
       <c r="G45" t="n">
-        <v>14.52465790546094</v>
+        <v>116.5441419540834</v>
       </c>
       <c r="H45" t="n">
         <v>14.52465790546094</v>
@@ -7761,16 +7761,16 @@
         <v>726.2328952730472</v>
       </c>
       <c r="V45" t="n">
+        <v>726.2328952730472</v>
+      </c>
+      <c r="W45" t="n">
         <v>542.8407500020758</v>
-      </c>
-      <c r="W45" t="n">
-        <v>359.4486047311042</v>
       </c>
       <c r="X45" t="n">
         <v>359.4486047311042</v>
       </c>
       <c r="Y45" t="n">
-        <v>359.4486047311042</v>
+        <v>176.0564594601327</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14.52465790546094</v>
+        <v>176.0564594601327</v>
       </c>
       <c r="C46" t="n">
-        <v>14.52465790546094</v>
+        <v>176.0564594601327</v>
       </c>
       <c r="D46" t="n">
-        <v>14.52465790546094</v>
+        <v>176.0564594601327</v>
       </c>
       <c r="E46" t="n">
-        <v>14.52465790546094</v>
+        <v>161.4146054033713</v>
       </c>
       <c r="F46" t="n">
         <v>14.52465790546094</v>
@@ -7807,19 +7807,19 @@
         <v>14.52465790546094</v>
       </c>
       <c r="K46" t="n">
-        <v>35.04810103931371</v>
+        <v>14.52465790546094</v>
       </c>
       <c r="L46" t="n">
-        <v>205.9229455515708</v>
+        <v>185.3995024177181</v>
       </c>
       <c r="M46" t="n">
-        <v>385.66558713165</v>
+        <v>365.1421439977972</v>
       </c>
       <c r="N46" t="n">
-        <v>565.4082287117292</v>
+        <v>544.8847855778764</v>
       </c>
       <c r="O46" t="n">
-        <v>726.2328952730472</v>
+        <v>705.7094521391945</v>
       </c>
       <c r="P46" t="n">
         <v>726.2328952730472</v>
@@ -7828,28 +7828,28 @@
         <v>726.2328952730472</v>
       </c>
       <c r="R46" t="n">
-        <v>591.4478077356555</v>
+        <v>726.2328952730472</v>
       </c>
       <c r="S46" t="n">
-        <v>591.4478077356555</v>
+        <v>726.2328952730472</v>
       </c>
       <c r="T46" t="n">
-        <v>591.4478077356555</v>
+        <v>726.2328952730472</v>
       </c>
       <c r="U46" t="n">
-        <v>591.4478077356555</v>
+        <v>542.8407500020758</v>
       </c>
       <c r="V46" t="n">
-        <v>564.7010937183754</v>
+        <v>359.4486047311042</v>
       </c>
       <c r="W46" t="n">
-        <v>381.308948447404</v>
+        <v>176.0564594601327</v>
       </c>
       <c r="X46" t="n">
-        <v>197.9168031764325</v>
+        <v>176.0564594601327</v>
       </c>
       <c r="Y46" t="n">
-        <v>14.52465790546094</v>
+        <v>176.0564594601327</v>
       </c>
     </row>
   </sheetData>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.25282299433832</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>11.25282299433823</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8851,16 +8851,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>167.5904218877106</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>159.9856501435538</v>
       </c>
       <c r="O13" t="n">
-        <v>137.4623156043288</v>
+        <v>139.9513670023296</v>
       </c>
       <c r="P13" t="n">
         <v>135.0065633140411</v>
@@ -9088,10 +9088,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>162.4747015415544</v>
+        <v>136.8953507800008</v>
       </c>
       <c r="M16" t="n">
-        <v>142.0110711261569</v>
+        <v>167.5904218877106</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>11.2528229943382</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>11.25282299433825</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9322,19 +9322,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>106.7437663446525</v>
+        <v>15.69306867202371</v>
       </c>
       <c r="L19" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M19" t="n">
-        <v>144.4745791253487</v>
+        <v>167.5904218877106</v>
       </c>
       <c r="N19" t="n">
-        <v>159.9856501435537</v>
+        <v>65.47134691107517</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5925082231369743</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P19" t="n">
         <v>135.0065633140411</v>
@@ -9398,22 +9398,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>50.47251445001508</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>46.07248533005222</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>75.59481002224595</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>97.90183426979064</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9489,16 +9489,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>62.92516512011164</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>99.95855997135726</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>45.43258153628139</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>208.3163066277504</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9638,22 +9638,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>264.2642707380942</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>257.1530338405078</v>
       </c>
       <c r="O23" t="n">
-        <v>123.4256031695759</v>
+        <v>247.9524193336215</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9717,22 +9717,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>28.96483403638302</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>301.671943259692</v>
       </c>
       <c r="M24" t="n">
-        <v>263.077745762691</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>244.4833889383734</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>281.5167837896191</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>234.8540254777556</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9884,16 +9884,16 @@
         <v>264.2642707380942</v>
       </c>
       <c r="N26" t="n">
-        <v>257.1530338405078</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>108.6952626204645</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>196.7516812888982</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9954,22 +9954,22 @@
         <v>16.92027177751656</v>
       </c>
       <c r="K27" t="n">
-        <v>138.1355975992753</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>301.671943259692</v>
       </c>
       <c r="M27" t="n">
-        <v>263.077745762691</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>244.4833889383734</v>
+        <v>244.4833889383735</v>
       </c>
       <c r="O27" t="n">
         <v>281.5167837896191</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>99.54140010227437</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>95.25032633421236</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>308.353771885231</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>264.2642707380942</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>257.1530338405078</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>41.70288388980714</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,19 +10188,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>16.92027177751656</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>138.1355975992753</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>301.671943259692</v>
       </c>
       <c r="M30" t="n">
-        <v>263.077745762691</v>
+        <v>234.8540254777557</v>
       </c>
       <c r="N30" t="n">
-        <v>244.4833889383734</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>281.5167837896191</v>
@@ -10349,25 +10349,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>235.2560250808363</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>279.4600580880524</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>165.7642532530061</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10428,25 +10428,25 @@
         <v>16.92027177751656</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>301.671943259692</v>
       </c>
       <c r="M33" t="n">
-        <v>263.0777457626911</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>281.5167837896191</v>
       </c>
       <c r="P33" t="n">
-        <v>189.5932455788402</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>25.56202040071069</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,16 +10586,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>136.8630827022564</v>
       </c>
       <c r="L35" t="n">
-        <v>126.7955480669692</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>17.1787715328737</v>
+        <v>82.70604691983237</v>
       </c>
       <c r="N35" t="n">
-        <v>75.59481002224595</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>16.92027177751656</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>126.7967846833211</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>99.14554306485809</v>
       </c>
       <c r="M36" t="n">
-        <v>81.51952194442924</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10820,25 +10820,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>17.17877153287369</v>
       </c>
       <c r="K38" t="n">
-        <v>66.85154818485434</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>126.7955480669692</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>75.59481002224595</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>152.7175814372345</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>16.92027177751656</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>88.20258718632016</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>120.1137194414302</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>99.14554306485817</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>66.85154818485437</v>
       </c>
       <c r="K41" t="n">
-        <v>177.6643518919078</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>41.9047777301811</v>
+        <v>152.7175814372345</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11148,16 +11148,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>62.92516512011164</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>99.95855997135726</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>45.43258153628139</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>208.3163066277504</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,7 +11218,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446526</v>
       </c>
       <c r="L43" t="n">
         <v>162.4747015415544</v>
@@ -11227,7 +11227,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N43" t="n">
-        <v>171.8177168444619</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O43" t="n">
         <v>163.0416663658825</v>
@@ -11455,7 +11455,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>36.42381931227903</v>
+        <v>15.69306867202371</v>
       </c>
       <c r="L46" t="n">
         <v>162.4747015415544</v>
@@ -11470,7 +11470,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P46" t="n">
-        <v>19.76150944130733</v>
+        <v>40.49226008156265</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23261,22 +23261,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>173.1248178024212</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>200.372146254</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.1283187674343</v>
+        <v>231.5700949491726</v>
       </c>
       <c r="H11" t="n">
         <v>135.6478122976156</v>
       </c>
       <c r="I11" t="n">
-        <v>126.6466107996747</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>189.3244851782881</v>
+        <v>315.9710959779627</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.6797148377918</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,13 +23334,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>51.17611480602601</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>32.08799672079753</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>58.35373873836311</v>
+        <v>38.44133178411505</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23437,7 +23437,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>24.40056401886955</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.488157064621518</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>133.4372366620178</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>201.1756178452188</v>
       </c>
       <c r="C14" t="n">
         <v>183.7146679527458</v>
@@ -23507,7 +23507,7 @@
         <v>225.3178219234497</v>
       </c>
       <c r="G14" t="n">
-        <v>231.5700949491726</v>
+        <v>413.1283187674343</v>
       </c>
       <c r="H14" t="n">
         <v>317.2060361158774</v>
@@ -23571,22 +23571,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>54.45680297409781</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>121.2988974825743</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.1801005662687</v>
       </c>
       <c r="H15" t="n">
         <v>100.9992892081362</v>
@@ -23640,7 +23640,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>24.12447195904261</v>
       </c>
     </row>
     <row r="16">
@@ -23738,19 +23738,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>348.6604973328116</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>225.3178219234497</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>231.5700949491726</v>
+        <v>413.1283187674343</v>
       </c>
       <c r="H17" t="n">
-        <v>135.6478122976156</v>
+        <v>317.2060361158774</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>126.6466107996747</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,16 +23786,16 @@
         <v>213.5773314960715</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1716994080204</v>
+        <v>91.25521586889548</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>146.1940346518732</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>167.6827448991513</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>188.1728768602073</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23811,22 +23811,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>13.01503231028994</v>
+        <v>136.1801005662687</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>100.9992892081362</v>
       </c>
       <c r="I18" t="n">
         <v>49.34040352687914</v>
@@ -23859,19 +23859,19 @@
         <v>27.92395105479207</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>150.0732180860786</v>
       </c>
       <c r="T18" t="n">
-        <v>195.475343376446</v>
+        <v>35.55885983732105</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8648415153865</v>
+        <v>44.30661769712478</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>51.24236333116352</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>70.13675934265785</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>19.91549664281237</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.0156099652791</v>
@@ -23911,7 +23911,7 @@
         <v>126.1184571760003</v>
       </c>
       <c r="J19" t="n">
-        <v>9.905128502675856</v>
+        <v>24.40056401886955</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23941,13 +23941,13 @@
         <v>25.46034579393375</v>
       </c>
       <c r="T19" t="n">
-        <v>42.21987820279747</v>
+        <v>223.7781020210592</v>
       </c>
       <c r="U19" t="n">
         <v>104.7076035713284</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>70.57941950556625</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23969,7 +23969,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>131.1041721462475</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23987,7 +23987,7 @@
         <v>317.2060361158774</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>126.6466107996747</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,22 +24014,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>13.28028628089564</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>159.4705023730156</v>
       </c>
       <c r="T20" t="n">
-        <v>72.55020307940896</v>
+        <v>213.5773314960715</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1716994080204</v>
+        <v>44.91589116253184</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>93.5835388453749</v>
       </c>
       <c r="W20" t="n">
-        <v>115.072249092653</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,19 +24045,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>44.74312555289885</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24093,22 +24093,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>27.92395105479207</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>150.0732180860786</v>
       </c>
       <c r="T21" t="n">
         <v>195.475343376446</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.8648415153865</v>
       </c>
       <c r="V21" t="n">
-        <v>70.32549982215045</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>17.5262635361596</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24136,19 +24136,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>69.45245971363413</v>
       </c>
       <c r="G22" t="n">
-        <v>167.0156099652791</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>153.5552519026239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>126.1184571760003</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>24.40056401886955</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,28 +24169,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.488157064621518</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>133.4372366620178</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>207.0185696121955</v>
       </c>
       <c r="T22" t="n">
-        <v>223.7781020210592</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>52.09710776483018</v>
+        <v>286.2658273895902</v>
       </c>
       <c r="V22" t="n">
-        <v>17.968923699068</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>52.354278711831</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>19.45384714354856</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>300.9993326500672</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24218,7 +24218,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.1283187674343</v>
       </c>
       <c r="H23" t="n">
         <v>317.2060361158774</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>13.28028628089564</v>
       </c>
       <c r="S23" t="n">
         <v>159.4705023730156</v>
@@ -24260,10 +24260,10 @@
         <v>213.5773314960715</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1716994080204</v>
+        <v>70.78084381641207</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24294,7 +24294,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>82.78002324894921</v>
+        <v>62.59787751086705</v>
       </c>
       <c r="G24" t="n">
         <v>136.1801005662687</v>
@@ -24339,7 +24339,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.8648415153865</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24351,7 +24351,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24376,16 +24376,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.0156099652791</v>
+        <v>31.21174892592057</v>
       </c>
       <c r="H25" t="n">
-        <v>153.5552519026239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>24.40056401886955</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,25 +24406,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>4.488157064621518</v>
       </c>
       <c r="R25" t="n">
         <v>133.4372366620178</v>
       </c>
       <c r="S25" t="n">
-        <v>207.0185696121955</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>223.7781020210592</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2658273895902</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>8.683954821201183</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24443,7 +24443,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24455,10 +24455,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.1283187674343</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>317.2060361158774</v>
       </c>
       <c r="I26" t="n">
         <v>126.6466107996747</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>13.28028628089564</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>159.4705023730156</v>
+        <v>87.5156433874741</v>
       </c>
       <c r="T26" t="n">
         <v>213.5773314960715</v>
       </c>
       <c r="U26" t="n">
-        <v>102.7812363894995</v>
+        <v>251.1716994080204</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24519,22 +24519,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>48.46866686001805</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.1801005662687</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>100.9992892081362</v>
@@ -24570,19 +24570,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>150.0732180860786</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>195.475343376446</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.8648415153865</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>3.302634700689651</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24604,25 +24604,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>2.798399630717256</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.0156099652791</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.5552519026239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>13.92341780347228</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>24.40056401886955</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24652,16 +24652,16 @@
         <v>207.0185696121955</v>
       </c>
       <c r="T28" t="n">
-        <v>223.7781020210592</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2658273895902</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24692,7 +24692,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.1283187674343</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>317.2060361158774</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>13.28028628089564</v>
       </c>
       <c r="S29" t="n">
         <v>159.4705023730156</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>213.5773314960715</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1716994080204</v>
       </c>
       <c r="V29" t="n">
-        <v>298.6223255891879</v>
+        <v>229.2333661832528</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,28 +24756,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>11.72477111233965</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.1801005662687</v>
       </c>
       <c r="H30" t="n">
         <v>100.9992892081362</v>
       </c>
       <c r="I30" t="n">
-        <v>49.34040352687914</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,25 +24804,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>27.92395105479207</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>150.0732180860786</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.8648415153865</v>
       </c>
       <c r="V30" t="n">
-        <v>204.979444070245</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24835,31 +24835,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>96.77486341193926</v>
       </c>
       <c r="H31" t="n">
-        <v>153.5552519026239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>126.1184571760003</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.40056401886955</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>177.4293674333611</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24917,22 +24917,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.1283187674343</v>
       </c>
       <c r="H32" t="n">
-        <v>275.5187492620751</v>
+        <v>317.2060361158774</v>
       </c>
       <c r="I32" t="n">
         <v>126.6466107996747</v>
@@ -24962,10 +24962,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>13.28028628089564</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>159.4705023730156</v>
+        <v>47.52190866023822</v>
       </c>
       <c r="T32" t="n">
         <v>213.5773314960715</v>
@@ -24980,10 +24980,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24993,19 +24993,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>88.37809412954586</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -25047,7 +25047,7 @@
         <v>150.0732180860786</v>
       </c>
       <c r="T33" t="n">
-        <v>158.4764751076832</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25056,7 +25056,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.0156099652791</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>153.5552519026239</v>
@@ -25096,7 +25096,7 @@
         <v>126.1184571760003</v>
       </c>
       <c r="J34" t="n">
-        <v>24.40056401886955</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>4.488157064621518</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.4372366620178</v>
       </c>
       <c r="S34" t="n">
-        <v>193.8754118889223</v>
+        <v>207.0185696121955</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>44.83577959885758</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>148.5651220387206</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25160,19 +25160,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>175.6745618267732</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>172.7073261169514</v>
       </c>
       <c r="G35" t="n">
-        <v>333.5191213216204</v>
+        <v>413.1283187674343</v>
       </c>
       <c r="H35" t="n">
-        <v>83.03731649111739</v>
+        <v>317.2060361158774</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>126.6466107996747</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25220,7 +25220,7 @@
         <v>135.562381053709</v>
       </c>
       <c r="Y35" t="n">
-        <v>152.0692190312936</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25245,7 +25245,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.1801005662687</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>100.9992892081362</v>
@@ -25278,13 +25278,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>27.92395105479207</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>150.0732180860786</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>185.3205097497267</v>
+        <v>59.55607462862852</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25293,10 +25293,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>17.5262635361596</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25312,10 +25312,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>66.87226958612204</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25354,19 +25354,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.488157064621518</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>133.4372366620178</v>
+        <v>128.2975374896455</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>223.7781020210592</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2658273895902</v>
+        <v>52.09710776483018</v>
       </c>
       <c r="V37" t="n">
         <v>17.968923699068</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25436,19 +25436,19 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>13.28028628089564</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>159.4705023730156</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>7.321523250582942</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>17.00297978326043</v>
       </c>
       <c r="V38" t="n">
-        <v>93.5835388453749</v>
+        <v>273.6558507498691</v>
       </c>
       <c r="W38" t="n">
         <v>115.072249092653</v>
@@ -25470,7 +25470,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25482,7 +25482,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.1801005662687</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>100.9992892081362</v>
@@ -25518,7 +25518,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>114.5957035609076</v>
+        <v>51.03970319291268</v>
       </c>
       <c r="T39" t="n">
         <v>195.475343376446</v>
@@ -25527,13 +25527,13 @@
         <v>225.8648415153865</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>17.5262635361596</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.0156099652791</v>
+        <v>50.17787405802378</v>
       </c>
       <c r="H40" t="n">
-        <v>153.5552519026239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>126.1184571760003</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>24.40056401886955</v>
@@ -25591,10 +25591,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.488157064621518</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>133.4372366620178</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>207.0185696121955</v>
@@ -25603,19 +25603,19 @@
         <v>223.7781020210592</v>
       </c>
       <c r="U40" t="n">
-        <v>52.09710776483018</v>
+        <v>286.2658273895902</v>
       </c>
       <c r="V40" t="n">
-        <v>17.968923699068</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>52.354278711831</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>12.3288451066062</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25628,16 +25628,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>131.1041721462475</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>120.514321995923</v>
       </c>
       <c r="E41" t="n">
-        <v>147.7616504475018</v>
+        <v>175.6745618267732</v>
       </c>
       <c r="F41" t="n">
-        <v>213.9005237771185</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.1283187674343</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>13.28028628089564</v>
       </c>
       <c r="S41" t="n">
         <v>159.4705023730156</v>
@@ -25682,7 +25682,7 @@
         <v>213.5773314960715</v>
       </c>
       <c r="U41" t="n">
-        <v>17.00297978326043</v>
+        <v>251.1716994080204</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25691,10 +25691,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>135.562381053709</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>152.0692190312936</v>
       </c>
     </row>
     <row r="42">
@@ -25710,10 +25710,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>17.77619648511762</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25767,10 +25767,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>17.5262635361596</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>147.0255425192359</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>31.22661592014094</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25807,7 +25807,7 @@
         <v>126.1184571760003</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>24.40056401886955</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>4.488157064621518</v>
       </c>
       <c r="R43" t="n">
         <v>133.4372366620178</v>
@@ -25843,10 +25843,10 @@
         <v>286.2658273895902</v>
       </c>
       <c r="V43" t="n">
-        <v>17.968923699068</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>264.9447608481428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>183.7146679527457</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25910,13 +25910,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>13.28028628089564</v>
+        <v>12.83430511478623</v>
       </c>
       <c r="S44" t="n">
-        <v>159.4705023730156</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>213.5773314960715</v>
+        <v>32.01910767780973</v>
       </c>
       <c r="U44" t="n">
         <v>251.1716994080204</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>226.3214551169285</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25941,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>113.7913046573269</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25953,13 +25953,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>106.3077892521331</v>
+        <v>136.1801005662687</v>
       </c>
       <c r="H45" t="n">
-        <v>100.9992892081362</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>49.34040352687914</v>
@@ -26001,16 +26001,16 @@
         <v>225.8648415153865</v>
       </c>
       <c r="V45" t="n">
-        <v>51.24236333116346</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>70.1367593426578</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>24.21476138521567</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>24.12447195904255</v>
       </c>
     </row>
     <row r="46">
@@ -26029,10 +26029,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>131.9385271303754</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.0156099652791</v>
@@ -26068,7 +26068,7 @@
         <v>4.488157064621518</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.4372366620178</v>
       </c>
       <c r="S46" t="n">
         <v>207.0185696121955</v>
@@ -26077,19 +26077,19 @@
         <v>223.7781020210592</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2658273895902</v>
+        <v>104.7076035713284</v>
       </c>
       <c r="V46" t="n">
-        <v>225.6583964467208</v>
+        <v>70.57941950556619</v>
       </c>
       <c r="W46" t="n">
         <v>104.9647745183292</v>
       </c>
       <c r="X46" t="n">
-        <v>44.15143157077534</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>37.02642953383298</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>402696.6190377747</v>
+        <v>402696.6190377748</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>402696.6190377747</v>
+        <v>402696.6190377748</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>402696.6190377748</v>
+        <v>402696.6190377749</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>446131.4147338656</v>
+        <v>446131.4147338655</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>571384.4585780849</v>
+        <v>571384.4585780847</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>571384.4585780849</v>
+        <v>571384.4585780848</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>446131.4147338657</v>
+        <v>446131.4147338656</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>446131.4147338658</v>
+        <v>446131.4147338656</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>446131.4147338657</v>
+        <v>446131.4147338656</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>402696.6190377748</v>
+        <v>402696.6190377747</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>532529.6201660751</v>
+      </c>
+      <c r="C2" t="n">
         <v>532529.620166075</v>
-      </c>
-      <c r="C2" t="n">
-        <v>532529.6201660751</v>
       </c>
       <c r="D2" t="n">
         <v>532529.6201660751</v>
@@ -26332,7 +26332,7 @@
         <v>251417.533145729</v>
       </c>
       <c r="I2" t="n">
-        <v>307291.6117367461</v>
+        <v>307291.6117367464</v>
       </c>
       <c r="J2" t="n">
         <v>307291.6117367462</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>419367.1218469025</v>
+        <v>420147.7688895312</v>
       </c>
       <c r="C4" t="n">
-        <v>419367.1218469025</v>
+        <v>420147.7688895312</v>
       </c>
       <c r="D4" t="n">
-        <v>419367.1218469025</v>
+        <v>420147.7688895312</v>
       </c>
       <c r="E4" t="n">
-        <v>10064.22107728712</v>
+        <v>10168.06463051833</v>
       </c>
       <c r="F4" t="n">
-        <v>10064.22107728711</v>
+        <v>10168.06463051833</v>
       </c>
       <c r="G4" t="n">
-        <v>10064.22107728711</v>
+        <v>10168.06463051833</v>
       </c>
       <c r="H4" t="n">
-        <v>20644.3818739667</v>
+        <v>20858.64917034785</v>
       </c>
       <c r="I4" t="n">
-        <v>51154.42164525225</v>
+        <v>51687.11820371574</v>
       </c>
       <c r="J4" t="n">
-        <v>51154.42164525226</v>
+        <v>51687.11820371574</v>
       </c>
       <c r="K4" t="n">
-        <v>51154.42164525225</v>
+        <v>51687.11820371574</v>
       </c>
       <c r="L4" t="n">
-        <v>51154.42164525227</v>
+        <v>51687.11820371575</v>
       </c>
       <c r="M4" t="n">
-        <v>20644.3818739667</v>
+        <v>20858.64917034786</v>
       </c>
       <c r="N4" t="n">
-        <v>20644.3818739667</v>
+        <v>20858.64917034786</v>
       </c>
       <c r="O4" t="n">
-        <v>20644.3818739667</v>
+        <v>20858.64917034786</v>
       </c>
       <c r="P4" t="n">
-        <v>10064.22107728713</v>
+        <v>10168.06463051834</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79534.89831917241</v>
+        <v>78754.25127654389</v>
       </c>
       <c r="C6" t="n">
-        <v>79534.89831917253</v>
+        <v>78754.25127654377</v>
       </c>
       <c r="D6" t="n">
-        <v>79534.89831917253</v>
+        <v>78754.25127654389</v>
       </c>
       <c r="E6" t="n">
-        <v>-289611.8267340528</v>
+        <v>-289715.670287284</v>
       </c>
       <c r="F6" t="n">
-        <v>199147.4327254535</v>
+        <v>199043.5891722223</v>
       </c>
       <c r="G6" t="n">
-        <v>199147.4327254535</v>
+        <v>199043.5891722223</v>
       </c>
       <c r="H6" t="n">
-        <v>190549.5785914274</v>
+        <v>190335.3112950463</v>
       </c>
       <c r="I6" t="n">
-        <v>170789.5182300881</v>
+        <v>170256.821671625</v>
       </c>
       <c r="J6" t="n">
-        <v>219069.6626660643</v>
+        <v>218536.9661076008</v>
       </c>
       <c r="K6" t="n">
-        <v>219069.6626660643</v>
+        <v>218536.9661076009</v>
       </c>
       <c r="L6" t="n">
-        <v>219069.6626660641</v>
+        <v>218536.9661076007</v>
       </c>
       <c r="M6" t="n">
-        <v>204744.3638544829</v>
+        <v>204530.0965581017</v>
       </c>
       <c r="N6" t="n">
-        <v>204744.3638544829</v>
+        <v>204530.0965581018</v>
       </c>
       <c r="O6" t="n">
-        <v>204744.3638544829</v>
+        <v>204530.0965581017</v>
       </c>
       <c r="P6" t="n">
-        <v>199147.4327254536</v>
+        <v>199043.5891722224</v>
       </c>
     </row>
   </sheetData>
@@ -27027,10 +27027,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>52.6104958064982</v>
+        <v>52.61049580649819</v>
       </c>
       <c r="I4" t="n">
-        <v>181.5582238182619</v>
+        <v>181.5582238182618</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>52.6104958064982</v>
+        <v>52.61049580649819</v>
       </c>
     </row>
   </sheetData>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>3.505168660975926</v>
+        <v>14.75799165531425</v>
       </c>
       <c r="K11" t="n">
         <v>56.50436773285224</v>
@@ -35422,7 +35422,7 @@
         <v>158.573909602514</v>
       </c>
       <c r="O11" t="n">
-        <v>147.5197083493076</v>
+        <v>136.2668853549694</v>
       </c>
       <c r="P11" t="n">
         <v>81.45113818752554</v>
@@ -35571,16 +35571,16 @@
         <v>91.05069767262881</v>
       </c>
       <c r="L13" t="n">
-        <v>172.600853042684</v>
+        <v>10.12615150112953</v>
       </c>
       <c r="M13" t="n">
         <v>181.5582238182618</v>
       </c>
       <c r="N13" t="n">
-        <v>21.57257367470802</v>
+        <v>181.5582238182618</v>
       </c>
       <c r="O13" t="n">
-        <v>136.8698073811918</v>
+        <v>139.3588587791926</v>
       </c>
       <c r="P13" t="n">
         <v>115.2450538727338</v>
@@ -35741,7 +35741,7 @@
         <v>134.2101596534027</v>
       </c>
       <c r="P15" t="n">
-        <v>88.18713555785365</v>
+        <v>88.18713555785388</v>
       </c>
       <c r="Q15" t="n">
         <v>8.527333972742014</v>
@@ -35808,10 +35808,10 @@
         <v>91.05069767262881</v>
       </c>
       <c r="L16" t="n">
-        <v>172.600853042684</v>
+        <v>147.0215022811303</v>
       </c>
       <c r="M16" t="n">
-        <v>155.9788730567081</v>
+        <v>181.5582238182618</v>
       </c>
       <c r="N16" t="n">
         <v>21.57257367470802</v>
@@ -35887,7 +35887,7 @@
         <v>56.50436773285224</v>
       </c>
       <c r="L17" t="n">
-        <v>118.625994552129</v>
+        <v>107.3731715577908</v>
       </c>
       <c r="M17" t="n">
         <v>151.4626727049276</v>
@@ -35899,7 +35899,7 @@
         <v>136.2668853549694</v>
       </c>
       <c r="P17" t="n">
-        <v>81.45113818752554</v>
+        <v>92.70396118186379</v>
       </c>
       <c r="Q17" t="n">
         <v>12.50707266631434</v>
@@ -35969,7 +35969,7 @@
         <v>114.0550001833298</v>
       </c>
       <c r="M18" t="n">
-        <v>152.6491976803305</v>
+        <v>152.6491976803308</v>
       </c>
       <c r="N18" t="n">
         <v>171.2435545046484</v>
@@ -36042,19 +36042,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>91.05069767262881</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>172.600853042684</v>
       </c>
       <c r="M19" t="n">
-        <v>158.4423810558999</v>
+        <v>181.5582238182618</v>
       </c>
       <c r="N19" t="n">
-        <v>181.5582238182618</v>
+        <v>87.0439205857832</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>162.4491581427455</v>
       </c>
       <c r="P19" t="n">
         <v>115.2450538727338</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>172.6017838330497</v>
+        <v>3.505168660975926</v>
       </c>
       <c r="K20" t="n">
-        <v>106.9768821828673</v>
+        <v>56.50436773285224</v>
       </c>
       <c r="L20" t="n">
         <v>107.3731715577908</v>
       </c>
       <c r="M20" t="n">
-        <v>151.4626727049276</v>
+        <v>197.5351580349798</v>
       </c>
       <c r="N20" t="n">
-        <v>158.573909602514</v>
+        <v>234.16871962476</v>
       </c>
       <c r="O20" t="n">
-        <v>136.2668853549694</v>
+        <v>234.16871962476</v>
       </c>
       <c r="P20" t="n">
         <v>81.45113818752554</v>
@@ -36209,16 +36209,16 @@
         <v>152.6491976803308</v>
       </c>
       <c r="N21" t="n">
-        <v>234.16871962476</v>
+        <v>171.2435545046484</v>
       </c>
       <c r="O21" t="n">
-        <v>234.16871962476</v>
+        <v>134.2101596534027</v>
       </c>
       <c r="P21" t="n">
-        <v>133.6197170941353</v>
+        <v>88.18713555785388</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.527333972742014</v>
+        <v>216.8436406004924</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,22 +36358,22 @@
         <v>172.6017838330497</v>
       </c>
       <c r="K23" t="n">
-        <v>380.649780304017</v>
+        <v>56.50436773285224</v>
       </c>
       <c r="L23" t="n">
         <v>107.3731715577908</v>
       </c>
       <c r="M23" t="n">
-        <v>151.4626727049276</v>
+        <v>415.7269434430218</v>
       </c>
       <c r="N23" t="n">
-        <v>158.573909602514</v>
+        <v>415.7269434430218</v>
       </c>
       <c r="O23" t="n">
-        <v>259.6924885245453</v>
+        <v>384.2193046885909</v>
       </c>
       <c r="P23" t="n">
-        <v>403.2498463590082</v>
+        <v>81.45113818752554</v>
       </c>
       <c r="Q23" t="n">
         <v>12.50707266631434</v>
@@ -36437,22 +36437,22 @@
         <v>109.1707635628923</v>
       </c>
       <c r="K24" t="n">
-        <v>78.9896619462838</v>
+        <v>50.02482790990078</v>
       </c>
       <c r="L24" t="n">
-        <v>114.0550001833298</v>
+        <v>415.7269434430218</v>
       </c>
       <c r="M24" t="n">
-        <v>415.7269434430218</v>
+        <v>152.6491976803308</v>
       </c>
       <c r="N24" t="n">
-        <v>415.7269434430218</v>
+        <v>171.2435545046484</v>
       </c>
       <c r="O24" t="n">
         <v>415.7269434430218</v>
       </c>
       <c r="P24" t="n">
-        <v>88.18713555785388</v>
+        <v>323.0411610356094</v>
       </c>
       <c r="Q24" t="n">
         <v>8.527333972742014</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>3.505168660975926</v>
+        <v>172.6017838330497</v>
       </c>
       <c r="K26" t="n">
         <v>56.50436773285224</v>
@@ -36604,16 +36604,16 @@
         <v>415.7269434430218</v>
       </c>
       <c r="N26" t="n">
-        <v>415.7269434430218</v>
+        <v>158.573909602514</v>
       </c>
       <c r="O26" t="n">
         <v>136.2668853549694</v>
       </c>
       <c r="P26" t="n">
-        <v>190.1464008079901</v>
+        <v>81.45113818752554</v>
       </c>
       <c r="Q26" t="n">
-        <v>12.50707266631434</v>
+        <v>209.2587539552126</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>188.1604255091761</v>
+        <v>50.02482790990078</v>
       </c>
       <c r="L27" t="n">
-        <v>114.0550001833298</v>
+        <v>415.7269434430218</v>
       </c>
       <c r="M27" t="n">
-        <v>415.7269434430218</v>
+        <v>152.6491976803308</v>
       </c>
       <c r="N27" t="n">
         <v>415.7269434430218</v>
@@ -36689,7 +36689,7 @@
         <v>415.7269434430218</v>
       </c>
       <c r="P27" t="n">
-        <v>88.18713555785388</v>
+        <v>187.7285356601282</v>
       </c>
       <c r="Q27" t="n">
         <v>8.527333972742014</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>3.505168660975926</v>
+        <v>98.75549499518829</v>
       </c>
       <c r="K29" t="n">
-        <v>380.649780304017</v>
+        <v>56.50436773285224</v>
       </c>
       <c r="L29" t="n">
-        <v>415.7269434430218</v>
+        <v>107.3731715577908</v>
       </c>
       <c r="M29" t="n">
         <v>415.7269434430218</v>
       </c>
       <c r="N29" t="n">
-        <v>158.573909602514</v>
+        <v>415.7269434430218</v>
       </c>
       <c r="O29" t="n">
         <v>136.2668853549694</v>
       </c>
       <c r="P29" t="n">
-        <v>81.45113818752554</v>
+        <v>403.2498463590082</v>
       </c>
       <c r="Q29" t="n">
-        <v>54.20995655612148</v>
+        <v>12.50707266631434</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>109.1707635628923</v>
       </c>
       <c r="K30" t="n">
-        <v>188.1604255091761</v>
+        <v>50.02482790990078</v>
       </c>
       <c r="L30" t="n">
-        <v>114.0550001833298</v>
+        <v>415.7269434430218</v>
       </c>
       <c r="M30" t="n">
-        <v>415.7269434430218</v>
+        <v>387.5032231580864</v>
       </c>
       <c r="N30" t="n">
-        <v>415.7269434430218</v>
+        <v>171.2435545046484</v>
       </c>
       <c r="O30" t="n">
         <v>415.7269434430218</v>
@@ -37069,25 +37069,25 @@
         <v>172.6017838330497</v>
       </c>
       <c r="K32" t="n">
-        <v>56.50436773285224</v>
+        <v>380.649780304017</v>
       </c>
       <c r="L32" t="n">
         <v>107.3731715577908</v>
       </c>
       <c r="M32" t="n">
-        <v>386.7186977857639</v>
+        <v>151.4626727049276</v>
       </c>
       <c r="N32" t="n">
         <v>158.573909602514</v>
       </c>
       <c r="O32" t="n">
-        <v>136.2668853549694</v>
+        <v>415.7269434430218</v>
       </c>
       <c r="P32" t="n">
-        <v>403.2498463590082</v>
+        <v>81.45113818752554</v>
       </c>
       <c r="Q32" t="n">
-        <v>224.822063326219</v>
+        <v>178.2713259193205</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>314.4900649224794</v>
+        <v>50.02482790990078</v>
       </c>
       <c r="L33" t="n">
-        <v>114.0550001833298</v>
+        <v>415.7269434430218</v>
       </c>
       <c r="M33" t="n">
-        <v>415.7269434430218</v>
+        <v>152.6491976803308</v>
       </c>
       <c r="N33" t="n">
         <v>171.2435545046484</v>
       </c>
       <c r="O33" t="n">
-        <v>134.2101596534027</v>
+        <v>415.7269434430218</v>
       </c>
       <c r="P33" t="n">
-        <v>277.7803811366941</v>
+        <v>406.649904197791</v>
       </c>
       <c r="Q33" t="n">
-        <v>218.6046217085911</v>
+        <v>34.0893543734527</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,16 +37306,16 @@
         <v>3.505168660975926</v>
       </c>
       <c r="K35" t="n">
-        <v>56.50436773285224</v>
+        <v>193.3674504351086</v>
       </c>
       <c r="L35" t="n">
+        <v>107.3731715577908</v>
+      </c>
+      <c r="M35" t="n">
         <v>234.16871962476</v>
       </c>
-      <c r="M35" t="n">
-        <v>168.6414442378013</v>
-      </c>
       <c r="N35" t="n">
-        <v>234.16871962476</v>
+        <v>158.573909602514</v>
       </c>
       <c r="O35" t="n">
         <v>136.2668853549694</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>109.1707635628923</v>
       </c>
       <c r="K36" t="n">
-        <v>176.8216125932219</v>
+        <v>50.02482790990078</v>
       </c>
       <c r="L36" t="n">
-        <v>114.0550001833298</v>
+        <v>213.2005432481879</v>
       </c>
       <c r="M36" t="n">
-        <v>234.16871962476</v>
+        <v>152.6491976803308</v>
       </c>
       <c r="N36" t="n">
         <v>171.2435545046484</v>
@@ -37540,25 +37540,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>3.505168660975926</v>
+        <v>20.68394019384961</v>
       </c>
       <c r="K38" t="n">
-        <v>123.3559159177066</v>
+        <v>56.50436773285224</v>
       </c>
       <c r="L38" t="n">
-        <v>107.3731715577908</v>
+        <v>234.16871962476</v>
       </c>
       <c r="M38" t="n">
         <v>151.4626727049276</v>
       </c>
       <c r="N38" t="n">
-        <v>158.573909602514</v>
+        <v>234.16871962476</v>
       </c>
       <c r="O38" t="n">
         <v>136.2668853549694</v>
       </c>
       <c r="P38" t="n">
-        <v>234.16871962476</v>
+        <v>81.45113818752554</v>
       </c>
       <c r="Q38" t="n">
         <v>12.50707266631434</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>109.1707635628923</v>
       </c>
       <c r="K39" t="n">
-        <v>138.2274150962209</v>
+        <v>50.02482790990078</v>
       </c>
       <c r="L39" t="n">
-        <v>234.16871962476</v>
+        <v>114.0550001833298</v>
       </c>
       <c r="M39" t="n">
         <v>152.6491976803308</v>
@@ -37640,7 +37640,7 @@
         <v>88.18713555785388</v>
       </c>
       <c r="Q39" t="n">
-        <v>8.527333972742014</v>
+        <v>107.6728770376002</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>3.505168660975926</v>
+        <v>70.35671684583029</v>
       </c>
       <c r="K41" t="n">
-        <v>234.16871962476</v>
+        <v>56.50436773285224</v>
       </c>
       <c r="L41" t="n">
         <v>107.3731715577908</v>
@@ -37795,7 +37795,7 @@
         <v>136.2668853549694</v>
       </c>
       <c r="P41" t="n">
-        <v>123.3559159177066</v>
+        <v>234.16871962476</v>
       </c>
       <c r="Q41" t="n">
         <v>12.50707266631434</v>
@@ -37868,16 +37868,16 @@
         <v>152.6491976803308</v>
       </c>
       <c r="N42" t="n">
-        <v>234.16871962476</v>
+        <v>171.2435545046484</v>
       </c>
       <c r="O42" t="n">
-        <v>234.16871962476</v>
+        <v>134.2101596534027</v>
       </c>
       <c r="P42" t="n">
-        <v>133.6197170941353</v>
+        <v>88.18713555785388</v>
       </c>
       <c r="Q42" t="n">
-        <v>8.527333972742014</v>
+        <v>216.8436406004924</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>91.05069767262881</v>
+        <v>91.05069767262893</v>
       </c>
       <c r="L43" t="n">
         <v>172.600853042684</v>
@@ -37947,7 +37947,7 @@
         <v>192.4774628399968</v>
       </c>
       <c r="N43" t="n">
-        <v>193.3902905191699</v>
+        <v>193.3902905191698</v>
       </c>
       <c r="O43" t="n">
         <v>162.4491581427455</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>20.73075064025532</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>172.600853042684</v>
@@ -38190,7 +38190,7 @@
         <v>162.4491581427455</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>20.73075064025532</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
